--- a/datasets/alfabetizacion_v01.xlsx
+++ b/datasets/alfabetizacion_v01.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">Anio</t>
   </si>
   <si>
+    <t xml:space="preserve">Adultos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
     <t xml:space="preserve">Hombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adultos</t>
   </si>
   <si>
     <t xml:space="preserve">Jovenes</t>
@@ -640,11 +640,11 @@
   </sheetPr>
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="12.96"/>
@@ -694,24 +694,24 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">D2/100</f>
-        <v>0.2981</v>
+        <v>0.4302</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>29.81</v>
+        <v>43.02</v>
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">F2/100</f>
-        <v>0.5548</v>
+        <v>0.2981</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>55.48</v>
+        <v>29.81</v>
       </c>
       <c r="G2" s="3" t="n">
         <f aca="false">H2/100</f>
-        <v>0.4302</v>
+        <v>0.5548</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>43.02</v>
+        <v>55.48</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">J2/100</f>
@@ -733,24 +733,24 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">D3/100</f>
-        <v>0.9776</v>
+        <v>0.9814</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>97.76</v>
+        <v>98.14</v>
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">F3/100</f>
-        <v>0.9851</v>
+        <v>0.9776</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>98.51</v>
+        <v>97.76</v>
       </c>
       <c r="G3" s="3" t="n">
         <f aca="false">H3/100</f>
-        <v>0.9814</v>
+        <v>0.9851</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>98.14</v>
+        <v>98.51</v>
       </c>
       <c r="I3" s="3" t="n">
         <f aca="false">J3/100</f>
@@ -811,24 +811,24 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">D5/100</f>
-        <v>0.5341</v>
+        <v>0.6603</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>53.41</v>
+        <v>66.03</v>
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">F5/100</f>
-        <v>0.7997</v>
+        <v>0.5341</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>79.97</v>
+        <v>53.41</v>
       </c>
       <c r="G5" s="3" t="n">
         <f aca="false">H5/100</f>
-        <v>0.6603</v>
+        <v>0.7997</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>66.03</v>
+        <v>79.97</v>
       </c>
       <c r="I5" s="3" t="n">
         <f aca="false">J5/100</f>
@@ -850,24 +850,24 @@
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">D6/100</f>
-        <v>0.9942</v>
+        <v>0.9895</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>99.42</v>
+        <v>98.95</v>
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">F6/100</f>
-        <v>0.984</v>
+        <v>0.9942</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>98.4</v>
+        <v>99.42</v>
       </c>
       <c r="G6" s="3" t="n">
         <f aca="false">H6/100</f>
-        <v>0.9895</v>
+        <v>0.984</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>98.95</v>
+        <v>98.4</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -880,24 +880,24 @@
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">D7/100</f>
-        <v>0.9271</v>
+        <v>0.9533</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>92.71</v>
+        <v>95.33</v>
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">F7/100</f>
-        <v>0.971</v>
+        <v>0.9271</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>97.1</v>
+        <v>92.71</v>
       </c>
       <c r="G7" s="3" t="n">
         <f aca="false">H7/100</f>
-        <v>0.9533</v>
+        <v>0.971</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>95.33</v>
+        <v>97.1</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">J7/100</f>
@@ -919,24 +919,24 @@
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">D8/100</f>
-        <v>0.7532</v>
+        <v>0.8141</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>75.32</v>
+        <v>81.41</v>
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">F8/100</f>
-        <v>0.8742</v>
+        <v>0.7532</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>87.42</v>
+        <v>75.32</v>
       </c>
       <c r="G8" s="3" t="n">
         <f aca="false">H8/100</f>
-        <v>0.8141</v>
+        <v>0.8742</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>81.41</v>
+        <v>87.42</v>
       </c>
       <c r="I8" s="3" t="n">
         <f aca="false">J8/100</f>
@@ -958,24 +958,24 @@
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">D9/100</f>
-        <v>0.9906</v>
+        <v>0.99</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>99.06</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">F9/100</f>
-        <v>0.9894</v>
+        <v>0.9906</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>98.94</v>
+        <v>99.06</v>
       </c>
       <c r="G9" s="3" t="n">
         <f aca="false">H9/100</f>
-        <v>0.99</v>
+        <v>0.9894</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>99</v>
+        <v>98.94</v>
       </c>
       <c r="I9" s="3" t="n">
         <f aca="false">J9/100</f>
@@ -997,24 +997,24 @@
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">D10/100</f>
-        <v>0.9968</v>
+        <v>0.9974</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>99.68</v>
+        <v>99.74</v>
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">F10/100</f>
-        <v>0.9981</v>
+        <v>0.9968</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>99.81</v>
+        <v>99.68</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">H10/100</f>
-        <v>0.9974</v>
+        <v>0.9981</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>99.74</v>
+        <v>99.81</v>
       </c>
       <c r="I10" s="3" t="n">
         <f aca="false">J10/100</f>
@@ -1036,24 +1036,24 @@
       </c>
       <c r="C11" s="3" t="n">
         <f aca="false">D11/100</f>
-        <v>0.9972</v>
+        <v>0.9979</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>99.72</v>
+        <v>99.79</v>
       </c>
       <c r="E11" s="3" t="n">
         <f aca="false">F11/100</f>
-        <v>0.9986</v>
+        <v>0.9972</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>99.86</v>
+        <v>99.72</v>
       </c>
       <c r="G11" s="3" t="n">
         <f aca="false">H11/100</f>
-        <v>0.9979</v>
+        <v>0.9986</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>99.79</v>
+        <v>99.86</v>
       </c>
       <c r="I11" s="3" t="n">
         <f aca="false">J11/100</f>
@@ -1075,24 +1075,24 @@
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">D12/100</f>
-        <v>0.7118</v>
+        <v>0.7391</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>71.18</v>
+        <v>73.91</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">F12/100</f>
-        <v>0.7667</v>
+        <v>0.7118</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>76.67</v>
+        <v>71.18</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">H12/100</f>
-        <v>0.7391</v>
+        <v>0.7667</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>73.91</v>
+        <v>76.67</v>
       </c>
       <c r="I12" s="3" t="n">
         <f aca="false">J12/100</f>
@@ -1153,24 +1153,24 @@
       </c>
       <c r="C14" s="3" t="n">
         <f aca="false">D14/100</f>
-        <v>0.9495</v>
+        <v>0.9746</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>94.95</v>
+        <v>97.46</v>
       </c>
       <c r="E14" s="3" t="n">
         <f aca="false">F14/100</f>
-        <v>0.9876</v>
+        <v>0.9495</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>98.76</v>
+        <v>94.95</v>
       </c>
       <c r="G14" s="3" t="n">
         <f aca="false">H14/100</f>
-        <v>0.9746</v>
+        <v>0.9876</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>97.46</v>
+        <v>98.76</v>
       </c>
       <c r="I14" s="3" t="n">
         <f aca="false">J14/100</f>
@@ -1192,24 +1192,24 @@
       </c>
       <c r="C15" s="3" t="n">
         <f aca="false">D15/100</f>
-        <v>0.7033</v>
+        <v>0.703</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>70.33</v>
+        <v>70.3</v>
       </c>
       <c r="E15" s="3" t="n">
         <f aca="false">F15/100</f>
-        <v>0.7027</v>
+        <v>0.7033</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>70.27</v>
+        <v>70.33</v>
       </c>
       <c r="G15" s="3" t="n">
         <f aca="false">H15/100</f>
-        <v>0.703</v>
+        <v>0.7027</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>70.3</v>
+        <v>70.27</v>
       </c>
       <c r="I15" s="3" t="n">
         <f aca="false">J15/100</f>
@@ -1228,24 +1228,24 @@
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">D16/100</f>
-        <v>0.3107</v>
+        <v>0.4236</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>31.07</v>
+        <v>42.36</v>
       </c>
       <c r="E16" s="3" t="n">
         <f aca="false">F16/100</f>
-        <v>0.5398</v>
+        <v>0.3107</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>53.98</v>
+        <v>31.07</v>
       </c>
       <c r="G16" s="3" t="n">
         <f aca="false">H16/100</f>
-        <v>0.4236</v>
+        <v>0.5398</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>42.36</v>
+        <v>53.98</v>
       </c>
       <c r="I16" s="3" t="n">
         <f aca="false">J16/100</f>
@@ -1267,24 +1267,24 @@
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">D17/100</f>
-        <v>0.9973</v>
+        <v>0.9976</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>99.73</v>
+        <v>99.76</v>
       </c>
       <c r="E17" s="3" t="n">
         <f aca="false">F17/100</f>
-        <v>0.9979</v>
+        <v>0.9973</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>99.79</v>
+        <v>99.73</v>
       </c>
       <c r="G17" s="3" t="n">
         <f aca="false">H17/100</f>
-        <v>0.9976</v>
+        <v>0.9979</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>99.76</v>
+        <v>99.79</v>
       </c>
       <c r="I17" s="3" t="n">
         <f aca="false">J17/100</f>
@@ -1306,24 +1306,24 @@
       </c>
       <c r="C18" s="3" t="n">
         <f aca="false">D18/100</f>
-        <v>0.7185</v>
+        <v>0.7555</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>71.85</v>
+        <v>75.55</v>
       </c>
       <c r="E18" s="3" t="n">
         <f aca="false">F18/100</f>
-        <v>0.8001</v>
+        <v>0.7185</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>80.01</v>
+        <v>71.85</v>
       </c>
       <c r="G18" s="3" t="n">
         <f aca="false">H18/100</f>
-        <v>0.7555</v>
+        <v>0.8001</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>75.55</v>
+        <v>80.01</v>
       </c>
       <c r="I18" s="3" t="n">
         <f aca="false">J18/100</f>
@@ -1345,24 +1345,24 @@
       </c>
       <c r="C19" s="3" t="n">
         <f aca="false">D19/100</f>
-        <v>0.8858</v>
+        <v>0.9246</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>88.58</v>
+        <v>92.46</v>
       </c>
       <c r="E19" s="3" t="n">
         <f aca="false">F19/100</f>
-        <v>0.9652</v>
+        <v>0.8858</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>96.52</v>
+        <v>88.58</v>
       </c>
       <c r="G19" s="3" t="n">
         <f aca="false">H19/100</f>
-        <v>0.9246</v>
+        <v>0.9652</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>92.46</v>
+        <v>96.52</v>
       </c>
       <c r="I19" s="3" t="n">
         <f aca="false">J19/100</f>
@@ -1384,24 +1384,24 @@
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">D20/100</f>
-        <v>0.9491</v>
+        <v>0.9699</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>94.91</v>
+        <v>96.99</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">F20/100</f>
-        <v>0.9918</v>
+        <v>0.9491</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>99.18</v>
+        <v>94.91</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">H20/100</f>
-        <v>0.9699</v>
+        <v>0.9918</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>96.99</v>
+        <v>99.18</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">J20/100</f>
@@ -1423,24 +1423,24 @@
       </c>
       <c r="C21" s="3" t="n">
         <f aca="false">D21/100</f>
-        <v>0.887</v>
+        <v>0.877</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>88.7</v>
+        <v>87.7</v>
       </c>
       <c r="E21" s="3" t="n">
         <f aca="false">F21/100</f>
-        <v>0.8674</v>
+        <v>0.887</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>86.74</v>
+        <v>88.7</v>
       </c>
       <c r="G21" s="3" t="n">
         <f aca="false">H21/100</f>
-        <v>0.877</v>
+        <v>0.8674</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>87.7</v>
+        <v>86.74</v>
       </c>
       <c r="I21" s="3" t="n">
         <f aca="false">J21/100</f>
@@ -1462,24 +1462,24 @@
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">D22/100</f>
-        <v>0.9343</v>
+        <v>0.9323</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>93.43</v>
+        <v>93.23</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">F22/100</f>
-        <v>0.9301</v>
+        <v>0.9343</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>93.01</v>
+        <v>93.43</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">H22/100</f>
-        <v>0.9323</v>
+        <v>0.9301</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>93.23</v>
+        <v>93.01</v>
       </c>
       <c r="I22" s="3" t="n">
         <f aca="false">J22/100</f>
@@ -1501,24 +1501,24 @@
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">D23/100</f>
-        <v>0.963</v>
+        <v>0.9721</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>96.3</v>
+        <v>97.21</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">F23/100</f>
-        <v>0.9805</v>
+        <v>0.963</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>98.05</v>
+        <v>96.3</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">H23/100</f>
-        <v>0.9721</v>
+        <v>0.9805</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>97.21</v>
+        <v>98.05</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">J23/100</f>
@@ -1540,24 +1540,24 @@
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">D24/100</f>
-        <v>0.9798</v>
+        <v>0.9835</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>97.98</v>
+        <v>98.35</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">F24/100</f>
-        <v>0.9875</v>
+        <v>0.9798</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>98.75</v>
+        <v>97.98</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">H24/100</f>
-        <v>0.9835</v>
+        <v>0.9875</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>98.35</v>
+        <v>98.75</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">J24/100</f>
@@ -1579,24 +1579,24 @@
       </c>
       <c r="C25" s="3" t="n">
         <f aca="false">D25/100</f>
-        <v>0.3269</v>
+        <v>0.4122</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>32.69</v>
+        <v>41.22</v>
       </c>
       <c r="E25" s="3" t="n">
         <f aca="false">F25/100</f>
-        <v>0.5007</v>
+        <v>0.3269</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>50.07</v>
+        <v>32.69</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">H25/100</f>
-        <v>0.4122</v>
+        <v>0.5007</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>41.22</v>
+        <v>50.07</v>
       </c>
       <c r="I25" s="3" t="n">
         <f aca="false">J25/100</f>
@@ -1618,24 +1618,24 @@
       </c>
       <c r="C26" s="3" t="n">
         <f aca="false">D26/100</f>
-        <v>0.6122</v>
+        <v>0.6838</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>61.22</v>
+        <v>68.38</v>
       </c>
       <c r="E26" s="3" t="n">
         <f aca="false">F26/100</f>
-        <v>0.763</v>
+        <v>0.6122</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>76.3</v>
+        <v>61.22</v>
       </c>
       <c r="G26" s="3" t="n">
         <f aca="false">H26/100</f>
-        <v>0.6838</v>
+        <v>0.763</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>68.38</v>
+        <v>76.3</v>
       </c>
       <c r="I26" s="3" t="n">
         <f aca="false">J26/100</f>
@@ -1657,24 +1657,24 @@
       </c>
       <c r="C27" s="3" t="n">
         <f aca="false">D27/100</f>
-        <v>0.5708</v>
+        <v>0.6656</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>57.08</v>
+        <v>66.56</v>
       </c>
       <c r="E27" s="3" t="n">
         <f aca="false">F27/100</f>
-        <v>0.7502</v>
+        <v>0.5708</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>75.02</v>
+        <v>57.08</v>
       </c>
       <c r="G27" s="3" t="n">
         <f aca="false">H27/100</f>
-        <v>0.6656</v>
+        <v>0.7502</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>66.56</v>
+        <v>75.02</v>
       </c>
       <c r="I27" s="3" t="n">
         <f aca="false">J27/100</f>
@@ -1696,24 +1696,24 @@
       </c>
       <c r="C28" s="3" t="n">
         <f aca="false">D28/100</f>
-        <v>0.8204</v>
+        <v>0.8679</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>82.04</v>
+        <v>86.79</v>
       </c>
       <c r="E28" s="3" t="n">
         <f aca="false">F28/100</f>
-        <v>0.9169</v>
+        <v>0.8204</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>91.69</v>
+        <v>82.04</v>
       </c>
       <c r="G28" s="3" t="n">
         <f aca="false">H28/100</f>
-        <v>0.8679</v>
+        <v>0.9169</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>86.79</v>
+        <v>91.69</v>
       </c>
       <c r="I28" s="3" t="n">
         <f aca="false">J28/100</f>
@@ -1735,24 +1735,24 @@
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">D29/100</f>
-        <v>0.7503</v>
+        <v>0.8053</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>75.03</v>
+        <v>80.53</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">F29/100</f>
-        <v>0.8653</v>
+        <v>0.7503</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>86.53</v>
+        <v>75.03</v>
       </c>
       <c r="G29" s="3" t="n">
         <f aca="false">H29/100</f>
-        <v>0.8053</v>
+        <v>0.8653</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>80.53</v>
+        <v>86.53</v>
       </c>
       <c r="I29" s="3" t="n">
         <f aca="false">J29/100</f>
@@ -1774,24 +1774,24 @@
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">D30/100</f>
-        <v>0.7159</v>
+        <v>0.7707</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>71.59</v>
+        <v>77.07</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">F30/100</f>
-        <v>0.8263</v>
+        <v>0.7159</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>82.63</v>
+        <v>71.59</v>
       </c>
       <c r="G30" s="3" t="n">
         <f aca="false">H30/100</f>
-        <v>0.7707</v>
+        <v>0.8263</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>77.07</v>
+        <v>82.63</v>
       </c>
       <c r="I30" s="3" t="n">
         <f aca="false">J30/100</f>
@@ -1813,24 +1813,24 @@
       </c>
       <c r="C31" s="3" t="n">
         <f aca="false">D31/100</f>
-        <v>0.9471</v>
+        <v>0.9346</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>94.71</v>
+        <v>93.46</v>
       </c>
       <c r="E31" s="3" t="n">
         <f aca="false">F31/100</f>
-        <v>0.9314</v>
+        <v>0.9471</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>93.14</v>
+        <v>94.71</v>
       </c>
       <c r="G31" s="3" t="n">
         <f aca="false">H31/100</f>
-        <v>0.9346</v>
+        <v>0.9314</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>93.46</v>
+        <v>93.14</v>
       </c>
       <c r="I31" s="3" t="n">
         <f aca="false">J31/100</f>
@@ -1852,24 +1852,24 @@
       </c>
       <c r="C32" s="3" t="n">
         <f aca="false">D32/100</f>
-        <v>0.1396</v>
+        <v>0.2231</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>13.96</v>
+        <v>22.31</v>
       </c>
       <c r="E32" s="3" t="n">
         <f aca="false">F32/100</f>
-        <v>0.3133</v>
+        <v>0.1396</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>31.33</v>
+        <v>13.96</v>
       </c>
       <c r="G32" s="3" t="n">
         <f aca="false">H32/100</f>
-        <v>0.2231</v>
+        <v>0.3133</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>22.31</v>
+        <v>31.33</v>
       </c>
       <c r="I32" s="3" t="n">
         <f aca="false">J32/100</f>
@@ -1891,24 +1891,24 @@
       </c>
       <c r="C33" s="3" t="n">
         <f aca="false">D33/100</f>
-        <v>0.9633</v>
+        <v>0.964</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>96.33</v>
+        <v>96.4</v>
       </c>
       <c r="E33" s="3" t="n">
         <f aca="false">F33/100</f>
-        <v>0.9648</v>
+        <v>0.9633</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>96.48</v>
+        <v>96.33</v>
       </c>
       <c r="G33" s="3" t="n">
         <f aca="false">H33/100</f>
-        <v>0.964</v>
+        <v>0.9648</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>96.4</v>
+        <v>96.48</v>
       </c>
       <c r="I33" s="3" t="n">
         <f aca="false">J33/100</f>
@@ -1930,24 +1930,24 @@
       </c>
       <c r="C34" s="3" t="n">
         <f aca="false">D34/100</f>
-        <v>0.9516</v>
+        <v>0.9684</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>95.16</v>
+        <v>96.84</v>
       </c>
       <c r="E34" s="3" t="n">
         <f aca="false">F34/100</f>
-        <v>0.9847</v>
+        <v>0.9516</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>98.47</v>
+        <v>95.16</v>
       </c>
       <c r="G34" s="3" t="n">
         <f aca="false">H34/100</f>
-        <v>0.9684</v>
+        <v>0.9847</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>96.84</v>
+        <v>98.47</v>
       </c>
       <c r="I34" s="3" t="n">
         <f aca="false">J34/100</f>
@@ -1969,24 +1969,24 @@
       </c>
       <c r="C35" s="3" t="n">
         <f aca="false">D35/100</f>
-        <v>0.9812</v>
+        <v>0.9868</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>98.12</v>
+        <v>98.68</v>
       </c>
       <c r="E35" s="3" t="n">
         <f aca="false">F35/100</f>
-        <v>0.9929</v>
+        <v>0.9812</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>99.29</v>
+        <v>98.12</v>
       </c>
       <c r="G35" s="3" t="n">
         <f aca="false">H35/100</f>
-        <v>0.9868</v>
+        <v>0.9929</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>98.68</v>
+        <v>99.29</v>
       </c>
       <c r="I35" s="3" t="n">
         <f aca="false">J35/100</f>
@@ -2008,24 +2008,24 @@
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">D36/100</f>
-        <v>0.9532</v>
+        <v>0.9509</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>95.32</v>
+        <v>95.09</v>
       </c>
       <c r="E36" s="3" t="n">
         <f aca="false">F36/100</f>
-        <v>0.9485</v>
+        <v>0.9532</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>94.85</v>
+        <v>95.32</v>
       </c>
       <c r="G36" s="3" t="n">
         <f aca="false">H36/100</f>
-        <v>0.9509</v>
+        <v>0.9485</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>95.09</v>
+        <v>94.85</v>
       </c>
       <c r="I36" s="3" t="n">
         <f aca="false">J36/100</f>
@@ -2047,24 +2047,24 @@
       </c>
       <c r="C37" s="3" t="n">
         <f aca="false">D37/100</f>
-        <v>0.5296</v>
+        <v>0.5882</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>52.96</v>
+        <v>58.82</v>
       </c>
       <c r="E37" s="3" t="n">
         <f aca="false">F37/100</f>
-        <v>0.6464</v>
+        <v>0.5296</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>64.64</v>
+        <v>52.96</v>
       </c>
       <c r="G37" s="3" t="n">
         <f aca="false">H37/100</f>
-        <v>0.5882</v>
+        <v>0.6464</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>58.82</v>
+        <v>64.64</v>
       </c>
       <c r="I37" s="3" t="n">
         <f aca="false">J37/100</f>
@@ -2122,24 +2122,24 @@
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">D39/100</f>
-        <v>0.405</v>
+        <v>0.4717</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40.5</v>
+        <v>47.17</v>
       </c>
       <c r="E39" s="3" t="n">
         <f aca="false">F39/100</f>
-        <v>0.5366</v>
+        <v>0.405</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>53.66</v>
+        <v>40.5</v>
       </c>
       <c r="G39" s="3" t="n">
         <f aca="false">H39/100</f>
-        <v>0.4717</v>
+        <v>0.5366</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>47.17</v>
+        <v>53.66</v>
       </c>
       <c r="I39" s="3" t="n">
         <f aca="false">J39/100</f>
@@ -2161,24 +2161,24 @@
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">D40/100</f>
-        <v>0.9792</v>
+        <v>0.9786</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>97.92</v>
+        <v>97.86</v>
       </c>
       <c r="E40" s="3" t="n">
         <f aca="false">F40/100</f>
-        <v>0.978</v>
+        <v>0.9792</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>97.8</v>
+        <v>97.92</v>
       </c>
       <c r="G40" s="3" t="n">
         <f aca="false">H40/100</f>
-        <v>0.9786</v>
+        <v>0.978</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>97.86</v>
+        <v>97.8</v>
       </c>
       <c r="I40" s="3" t="n">
         <f aca="false">J40/100</f>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">D41/100</f>
-        <v>0.9867</v>
+        <v>0.9913</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>98.67</v>
+        <v>99.13</v>
       </c>
       <c r="E41" s="3" t="n">
         <f aca="false">F41/100</f>
-        <v>0.9963</v>
+        <v>0.9867</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>99.63</v>
+        <v>98.67</v>
       </c>
       <c r="G41" s="3" t="n">
         <f aca="false">H41/100</f>
-        <v>0.9913</v>
+        <v>0.9963</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>99.13</v>
+        <v>99.63</v>
       </c>
       <c r="I41" s="3" t="n">
         <f aca="false">J41/100</f>
@@ -2239,24 +2239,24 @@
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">D42/100</f>
-        <v>0.998</v>
+        <v>0.9975</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>99.8</v>
+        <v>99.75</v>
       </c>
       <c r="E42" s="3" t="n">
         <f aca="false">F42/100</f>
-        <v>0.9971</v>
+        <v>0.998</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>99.71</v>
+        <v>99.8</v>
       </c>
       <c r="G42" s="3" t="n">
         <f aca="false">H42/100</f>
-        <v>0.9975</v>
+        <v>0.9971</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>99.75</v>
+        <v>99.71</v>
       </c>
       <c r="I42" s="3" t="n">
         <f aca="false">J42/100</f>
@@ -2278,24 +2278,24 @@
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">D43/100</f>
-        <v>0.9209</v>
+        <v>0.9283</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>92.09</v>
+        <v>92.83</v>
       </c>
       <c r="E43" s="3" t="n">
         <f aca="false">F43/100</f>
-        <v>0.9378</v>
+        <v>0.9209</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>93.78</v>
+        <v>92.09</v>
       </c>
       <c r="G43" s="3" t="n">
         <f aca="false">H43/100</f>
-        <v>0.9283</v>
+        <v>0.9378</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>92.83</v>
+        <v>93.78</v>
       </c>
       <c r="I43" s="3" t="n">
         <f aca="false">J43/100</f>
@@ -2317,24 +2317,24 @@
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">D44/100</f>
-        <v>0.6551</v>
+        <v>0.7117</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>65.51</v>
+        <v>71.17</v>
       </c>
       <c r="E44" s="3" t="n">
         <f aca="false">F44/100</f>
-        <v>0.765</v>
+        <v>0.6551</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>76.5</v>
+        <v>65.51</v>
       </c>
       <c r="G44" s="3" t="n">
         <f aca="false">H44/100</f>
-        <v>0.7117</v>
+        <v>0.765</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>71.17</v>
+        <v>76.5</v>
       </c>
       <c r="I44" s="3" t="n">
         <f aca="false">J44/100</f>
@@ -2356,24 +2356,24 @@
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">D45/100</f>
-        <v>0.8723</v>
+        <v>0.8901</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>87.23</v>
+        <v>89.01</v>
       </c>
       <c r="E45" s="3" t="n">
         <f aca="false">F45/100</f>
-        <v>0.911</v>
+        <v>0.8723</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>91.1</v>
+        <v>87.23</v>
       </c>
       <c r="G45" s="3" t="n">
         <f aca="false">H45/100</f>
-        <v>0.8901</v>
+        <v>0.911</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>89.01</v>
+        <v>91.1</v>
       </c>
       <c r="I45" s="3" t="n">
         <f aca="false">J45/100</f>
@@ -2395,24 +2395,24 @@
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">D46/100</f>
-        <v>0.951</v>
+        <v>0.9323</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>95.1</v>
+        <v>93.23</v>
       </c>
       <c r="E46" s="3" t="n">
         <f aca="false">F46/100</f>
-        <v>0.9256</v>
+        <v>0.951</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>92.56</v>
+        <v>95.1</v>
       </c>
       <c r="G46" s="3" t="n">
         <f aca="false">H46/100</f>
-        <v>0.9323</v>
+        <v>0.9256</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>93.23</v>
+        <v>92.56</v>
       </c>
       <c r="I46" s="3" t="n">
         <f aca="false">J46/100</f>
@@ -2434,24 +2434,24 @@
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">D47/100</f>
-        <v>0.6895</v>
+        <v>0.7657</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>68.95</v>
+        <v>76.57</v>
       </c>
       <c r="E47" s="3" t="n">
         <f aca="false">F47/100</f>
-        <v>0.8437</v>
+        <v>0.6895</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>84.37</v>
+        <v>68.95</v>
       </c>
       <c r="G47" s="3" t="n">
         <f aca="false">H47/100</f>
-        <v>0.7657</v>
+        <v>0.8437</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>76.57</v>
+        <v>84.37</v>
       </c>
       <c r="I47" s="3" t="n">
         <f aca="false">J47/100</f>
@@ -2473,24 +2473,24 @@
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">D48/100</f>
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="E48" s="3" t="n">
         <f aca="false">F48/100</f>
-        <v>0.9969</v>
+        <v>0.996</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>99.69</v>
+        <v>99.6</v>
       </c>
       <c r="G48" s="3" t="n">
         <f aca="false">H48/100</f>
-        <v>0.997</v>
+        <v>0.9969</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>99.7</v>
+        <v>99.69</v>
       </c>
       <c r="I48" s="3" t="n">
         <f aca="false">J48/100</f>
@@ -2512,24 +2512,24 @@
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">D49/100</f>
-        <v>0.9797</v>
+        <v>0.9844</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>97.97</v>
+        <v>98.44</v>
       </c>
       <c r="E49" s="3" t="n">
         <f aca="false">F49/100</f>
-        <v>0.9893</v>
+        <v>0.9797</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>98.93</v>
+        <v>97.97</v>
       </c>
       <c r="G49" s="3" t="n">
         <f aca="false">H49/100</f>
-        <v>0.9844</v>
+        <v>0.9893</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>98.44</v>
+        <v>98.93</v>
       </c>
       <c r="I49" s="3" t="n">
         <f aca="false">J49/100</f>
@@ -2551,24 +2551,24 @@
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">D50/100</f>
-        <v>0.9574</v>
+        <v>0.9722</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>95.74</v>
+        <v>97.22</v>
       </c>
       <c r="E50" s="3" t="n">
         <f aca="false">F50/100</f>
-        <v>0.9866</v>
+        <v>0.9574</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>98.66</v>
+        <v>95.74</v>
       </c>
       <c r="G50" s="3" t="n">
         <f aca="false">H50/100</f>
-        <v>0.9722</v>
+        <v>0.9866</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>97.22</v>
+        <v>98.66</v>
       </c>
       <c r="I50" s="3" t="n">
         <f aca="false">J50/100</f>
@@ -2590,24 +2590,24 @@
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">D51/100</f>
-        <v>0.9991</v>
+        <v>0.9989</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>99.91</v>
+        <v>99.89</v>
       </c>
       <c r="E51" s="3" t="n">
         <f aca="false">F51/100</f>
-        <v>0.9986</v>
+        <v>0.9991</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>99.86</v>
+        <v>99.91</v>
       </c>
       <c r="G51" s="3" t="n">
         <f aca="false">H51/100</f>
-        <v>0.9989</v>
+        <v>0.9986</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>99.89</v>
+        <v>99.86</v>
       </c>
       <c r="I51" s="3" t="n">
         <f aca="false">J51/100</f>
@@ -2629,24 +2629,24 @@
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">D52/100</f>
-        <v>0.4442</v>
+        <v>0.5177</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>44.42</v>
+        <v>51.77</v>
       </c>
       <c r="E52" s="3" t="n">
         <f aca="false">F52/100</f>
-        <v>0.5924</v>
+        <v>0.4442</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>59.24</v>
+        <v>44.42</v>
       </c>
       <c r="G52" s="3" t="n">
         <f aca="false">H52/100</f>
-        <v>0.5177</v>
+        <v>0.5924</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>51.77</v>
+        <v>59.24</v>
       </c>
       <c r="I52" s="3" t="n">
         <f aca="false">J52/100</f>
@@ -2668,24 +2668,24 @@
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">D53/100</f>
-        <v>0.9824</v>
+        <v>0.9818</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>98.24</v>
+        <v>98.18</v>
       </c>
       <c r="E53" s="3" t="n">
         <f aca="false">F53/100</f>
-        <v>0.9812</v>
+        <v>0.9824</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>98.12</v>
+        <v>98.24</v>
       </c>
       <c r="G53" s="3" t="n">
         <f aca="false">H53/100</f>
-        <v>0.9818</v>
+        <v>0.9812</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>98.18</v>
+        <v>98.12</v>
       </c>
       <c r="I53" s="3" t="n">
         <f aca="false">J53/100</f>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">D54/100</f>
-        <v>0.9909</v>
+        <v>0.9908</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>99.09</v>
+        <v>99.08</v>
       </c>
       <c r="E54" s="3" t="n">
         <f aca="false">F54/100</f>
-        <v>0.9908</v>
+        <v>0.9909</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>99.08</v>
+        <v>99.09</v>
       </c>
       <c r="G54" s="3" t="n">
         <f aca="false">H54/100</f>
@@ -2746,24 +2746,24 @@
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">D55/100</f>
-        <v>0.8342</v>
+        <v>0.8467</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>83.42</v>
+        <v>84.67</v>
       </c>
       <c r="E55" s="3" t="n">
         <f aca="false">F55/100</f>
-        <v>0.8585</v>
+        <v>0.8342</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>85.85</v>
+        <v>83.42</v>
       </c>
       <c r="G55" s="3" t="n">
         <f aca="false">H55/100</f>
-        <v>0.8467</v>
+        <v>0.8585</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>84.67</v>
+        <v>85.85</v>
       </c>
       <c r="I55" s="3" t="n">
         <f aca="false">J55/100</f>
@@ -2785,24 +2785,24 @@
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">D56/100</f>
-        <v>0.4158</v>
+        <v>0.5078</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>41.58</v>
+        <v>50.78</v>
       </c>
       <c r="E56" s="3" t="n">
         <f aca="false">F56/100</f>
-        <v>0.6177</v>
+        <v>0.4158</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>61.77</v>
+        <v>41.58</v>
       </c>
       <c r="G56" s="3" t="n">
         <f aca="false">H56/100</f>
-        <v>0.5078</v>
+        <v>0.6177</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>50.78</v>
+        <v>61.77</v>
       </c>
       <c r="I56" s="3" t="n">
         <f aca="false">J56/100</f>
@@ -2824,24 +2824,24 @@
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">D57/100</f>
-        <v>0.9929</v>
+        <v>0.9936</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>99.29</v>
+        <v>99.36</v>
       </c>
       <c r="E57" s="3" t="n">
         <f aca="false">F57/100</f>
-        <v>0.9944</v>
+        <v>0.9929</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>99.44</v>
+        <v>99.29</v>
       </c>
       <c r="G57" s="3" t="n">
         <f aca="false">H57/100</f>
-        <v>0.9936</v>
+        <v>0.9944</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>99.36</v>
+        <v>99.44</v>
       </c>
       <c r="I57" s="3" t="n">
         <f aca="false">J57/100</f>
@@ -2863,24 +2863,24 @@
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">D58/100</f>
-        <v>0.7447</v>
+        <v>0.7904</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>74.47</v>
+        <v>79.04</v>
       </c>
       <c r="E58" s="3" t="n">
         <f aca="false">F58/100</f>
-        <v>0.8352</v>
+        <v>0.7447</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>83.52</v>
+        <v>74.47</v>
       </c>
       <c r="G58" s="3" t="n">
         <f aca="false">H58/100</f>
-        <v>0.7904</v>
+        <v>0.8352</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>79.04</v>
+        <v>83.52</v>
       </c>
       <c r="I58" s="3" t="n">
         <f aca="false">J58/100</f>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="E59" s="3" t="n">
         <f aca="false">F59/100</f>
-        <v>0.9858</v>
+        <v>0.986</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>98.58</v>
+        <v>98.6</v>
       </c>
       <c r="G59" s="3" t="n">
         <f aca="false">H59/100</f>
-        <v>0.986</v>
+        <v>0.9858</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>98.6</v>
+        <v>98.58</v>
       </c>
       <c r="I59" s="3" t="n">
         <f aca="false">J59/100</f>
@@ -2941,24 +2941,24 @@
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">D60/100</f>
-        <v>0.9739</v>
+        <v>0.9794</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>97.39</v>
+        <v>97.94</v>
       </c>
       <c r="E60" s="3" t="n">
         <f aca="false">F60/100</f>
-        <v>0.9851</v>
+        <v>0.9739</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>98.51</v>
+        <v>97.39</v>
       </c>
       <c r="G60" s="3" t="n">
         <f aca="false">H60/100</f>
-        <v>0.9794</v>
+        <v>0.9851</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>97.94</v>
+        <v>98.51</v>
       </c>
       <c r="I60" s="3" t="n">
         <f aca="false">J60/100</f>
@@ -2980,24 +2980,24 @@
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">D61/100</f>
-        <v>0.7637</v>
+        <v>0.8129</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>76.37</v>
+        <v>81.29</v>
       </c>
       <c r="E61" s="3" t="n">
         <f aca="false">F61/100</f>
-        <v>0.8676</v>
+        <v>0.7637</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>86.76</v>
+        <v>76.37</v>
       </c>
       <c r="G61" s="3" t="n">
         <f aca="false">H61/100</f>
-        <v>0.8129</v>
+        <v>0.8676</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>81.29</v>
+        <v>86.76</v>
       </c>
       <c r="I61" s="3" t="n">
         <f aca="false">J61/100</f>
@@ -3019,24 +3019,24 @@
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">D62/100</f>
-        <v>0.2196</v>
+        <v>0.32</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>21.96</v>
+        <v>32</v>
       </c>
       <c r="E62" s="3" t="n">
         <f aca="false">F62/100</f>
-        <v>0.4364</v>
+        <v>0.2196</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>43.64</v>
+        <v>21.96</v>
       </c>
       <c r="G62" s="3" t="n">
         <f aca="false">H62/100</f>
-        <v>0.32</v>
+        <v>0.4364</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>32</v>
+        <v>43.64</v>
       </c>
       <c r="I62" s="3" t="n">
         <f aca="false">J62/100</f>
@@ -3058,24 +3058,24 @@
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">D63/100</f>
-        <v>0.924</v>
+        <v>0.95</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>92.4</v>
+        <v>95</v>
       </c>
       <c r="E63" s="3" t="n">
         <f aca="false">F63/100</f>
-        <v>0.9729</v>
+        <v>0.924</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>97.29</v>
+        <v>92.4</v>
       </c>
       <c r="G63" s="3" t="n">
         <f aca="false">H63/100</f>
-        <v>0.95</v>
+        <v>0.9729</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>95</v>
+        <v>97.29</v>
       </c>
       <c r="I63" s="3" t="n">
         <f aca="false">J63/100</f>
@@ -3097,24 +3097,24 @@
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">D64/100</f>
-        <v>0.3077</v>
+        <v>0.4558</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>30.77</v>
+        <v>45.58</v>
       </c>
       <c r="E64" s="3" t="n">
         <f aca="false">F64/100</f>
-        <v>0.6216</v>
+        <v>0.3077</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>62.16</v>
+        <v>30.77</v>
       </c>
       <c r="G64" s="3" t="n">
         <f aca="false">H64/100</f>
-        <v>0.4558</v>
+        <v>0.6216</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45.58</v>
+        <v>62.16</v>
       </c>
       <c r="I64" s="3" t="n">
         <f aca="false">J64/100</f>
@@ -3136,24 +3136,24 @@
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">D65/100</f>
-        <v>0.8503</v>
+        <v>0.8564</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>85.03</v>
+        <v>85.64</v>
       </c>
       <c r="E65" s="3" t="n">
         <f aca="false">F65/100</f>
-        <v>0.8631</v>
+        <v>0.8503</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>86.31</v>
+        <v>85.03</v>
       </c>
       <c r="G65" s="3" t="n">
         <f aca="false">H65/100</f>
-        <v>0.8564</v>
+        <v>0.8631</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>85.64</v>
+        <v>86.31</v>
       </c>
       <c r="I65" s="3" t="n">
         <f aca="false">J65/100</f>
@@ -3175,24 +3175,24 @@
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">D66/100</f>
-        <v>0.583</v>
+        <v>0.6169</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>58.3</v>
+        <v>61.69</v>
       </c>
       <c r="E66" s="3" t="n">
         <f aca="false">F66/100</f>
-        <v>0.6528</v>
+        <v>0.583</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>65.28</v>
+        <v>58.3</v>
       </c>
       <c r="G66" s="3" t="n">
         <f aca="false">H66/100</f>
-        <v>0.6169</v>
+        <v>0.6528</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>61.69</v>
+        <v>65.28</v>
       </c>
       <c r="I66" s="3" t="n">
         <f aca="false">J66/100</f>
@@ -3214,24 +3214,24 @@
       </c>
       <c r="C67" s="3" t="n">
         <f aca="false">D67/100</f>
-        <v>0.8727</v>
+        <v>0.8721</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>87.27</v>
+        <v>87.21</v>
       </c>
       <c r="E67" s="3" t="n">
         <f aca="false">F67/100</f>
-        <v>0.8714</v>
+        <v>0.8727</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>87.14</v>
+        <v>87.27</v>
       </c>
       <c r="G67" s="3" t="n">
         <f aca="false">H67/100</f>
-        <v>0.8721</v>
+        <v>0.8714</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>87.21</v>
+        <v>87.14</v>
       </c>
       <c r="I67" s="3" t="n">
         <f aca="false">J67/100</f>
@@ -3260,17 +3260,17 @@
       </c>
       <c r="E68" s="3" t="n">
         <f aca="false">F68/100</f>
-        <v>0.9916</v>
+        <v>0.991</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>99.16</v>
+        <v>99.1</v>
       </c>
       <c r="G68" s="3" t="n">
         <f aca="false">H68/100</f>
-        <v>0.991</v>
+        <v>0.9916</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>99.1</v>
+        <v>99.16</v>
       </c>
       <c r="I68" s="3" t="n">
         <f aca="false">J68/100</f>
@@ -3292,24 +3292,24 @@
       </c>
       <c r="C69" s="3" t="n">
         <f aca="false">D69/100</f>
-        <v>0.6579</v>
+        <v>0.7437</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>65.79</v>
+        <v>74.37</v>
       </c>
       <c r="E69" s="3" t="n">
         <f aca="false">F69/100</f>
-        <v>0.8237</v>
+        <v>0.6579</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>82.37</v>
+        <v>65.79</v>
       </c>
       <c r="G69" s="3" t="n">
         <f aca="false">H69/100</f>
-        <v>0.7437</v>
+        <v>0.8237</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>74.37</v>
+        <v>82.37</v>
       </c>
       <c r="I69" s="3" t="n">
         <f aca="false">J69/100</f>
@@ -3331,24 +3331,24 @@
       </c>
       <c r="C70" s="3" t="n">
         <f aca="false">D70/100</f>
-        <v>0.9399</v>
+        <v>0.9566</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>93.99</v>
+        <v>95.66</v>
       </c>
       <c r="E70" s="3" t="n">
         <f aca="false">F70/100</f>
-        <v>0.9733</v>
+        <v>0.9399</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>97.33</v>
+        <v>93.99</v>
       </c>
       <c r="G70" s="3" t="n">
         <f aca="false">H70/100</f>
-        <v>0.9566</v>
+        <v>0.9733</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>95.66</v>
+        <v>97.33</v>
       </c>
       <c r="I70" s="3" t="n">
         <f aca="false">J70/100</f>
@@ -3370,24 +3370,24 @@
       </c>
       <c r="C71" s="3" t="n">
         <f aca="false">D71/100</f>
-        <v>0.799</v>
+        <v>0.856</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>79.9</v>
+        <v>85.6</v>
       </c>
       <c r="E71" s="3" t="n">
         <f aca="false">F71/100</f>
-        <v>0.912</v>
+        <v>0.799</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>91.2</v>
+        <v>79.9</v>
       </c>
       <c r="G71" s="3" t="n">
         <f aca="false">H71/100</f>
-        <v>0.856</v>
+        <v>0.912</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>85.6</v>
+        <v>91.2</v>
       </c>
       <c r="I71" s="3" t="n">
         <f aca="false">J71/100</f>
@@ -3409,24 +3409,24 @@
       </c>
       <c r="C72" s="3" t="n">
         <f aca="false">D72/100</f>
-        <v>0.8079</v>
+        <v>0.8554</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>80.79</v>
+        <v>85.54</v>
       </c>
       <c r="E72" s="3" t="n">
         <f aca="false">F72/100</f>
-        <v>0.9035</v>
+        <v>0.8079</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>90.35</v>
+        <v>80.79</v>
       </c>
       <c r="G72" s="3" t="n">
         <f aca="false">H72/100</f>
-        <v>0.8554</v>
+        <v>0.9035</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>85.54</v>
+        <v>90.35</v>
       </c>
       <c r="I72" s="3" t="n">
         <f aca="false">J72/100</f>
@@ -3448,24 +3448,24 @@
       </c>
       <c r="C73" s="3" t="n">
         <f aca="false">D73/100</f>
-        <v>0.982</v>
+        <v>0.9827</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>98.2</v>
+        <v>98.27</v>
       </c>
       <c r="E73" s="3" t="n">
         <f aca="false">F73/100</f>
-        <v>0.9833</v>
+        <v>0.982</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>98.33</v>
+        <v>98.2</v>
       </c>
       <c r="G73" s="3" t="n">
         <f aca="false">H73/100</f>
-        <v>0.9827</v>
+        <v>0.9833</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>98.27</v>
+        <v>98.33</v>
       </c>
       <c r="I73" s="3" t="n">
         <f aca="false">J73/100</f>
@@ -3484,24 +3484,24 @@
       </c>
       <c r="C74" s="3" t="n">
         <f aca="false">D74/100</f>
-        <v>0.69</v>
+        <v>0.766</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>69</v>
+        <v>76.6</v>
       </c>
       <c r="E74" s="3" t="n">
         <f aca="false">F74/100</f>
-        <v>0.837</v>
+        <v>0.69</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>83.7</v>
+        <v>69</v>
       </c>
       <c r="G74" s="3" t="n">
         <f aca="false">H74/100</f>
-        <v>0.766</v>
+        <v>0.837</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>76.6</v>
+        <v>83.7</v>
       </c>
       <c r="I74" s="3"/>
     </row>
@@ -3514,24 +3514,24 @@
       </c>
       <c r="C75" s="3" t="n">
         <f aca="false">D75/100</f>
-        <v>0.8867</v>
+        <v>0.9175</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>88.67</v>
+        <v>91.75</v>
       </c>
       <c r="E75" s="3" t="n">
         <f aca="false">F75/100</f>
-        <v>0.9496</v>
+        <v>0.8867</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>94.96</v>
+        <v>88.67</v>
       </c>
       <c r="G75" s="3" t="n">
         <f aca="false">H75/100</f>
-        <v>0.9175</v>
+        <v>0.9496</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>91.75</v>
+        <v>94.96</v>
       </c>
       <c r="I75" s="3" t="n">
         <f aca="false">J75/100</f>
@@ -3550,24 +3550,24 @@
       </c>
       <c r="C76" s="3" t="n">
         <f aca="false">D76/100</f>
-        <v>0.9897</v>
+        <v>0.9916</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>98.97</v>
+        <v>99.16</v>
       </c>
       <c r="E76" s="3" t="n">
         <f aca="false">F76/100</f>
-        <v>0.9935</v>
+        <v>0.9897</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>99.35</v>
+        <v>98.97</v>
       </c>
       <c r="G76" s="3" t="n">
         <f aca="false">H76/100</f>
-        <v>0.9916</v>
+        <v>0.9935</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>99.16</v>
+        <v>99.35</v>
       </c>
       <c r="I76" s="3" t="n">
         <f aca="false">J76/100</f>
@@ -3589,24 +3589,24 @@
       </c>
       <c r="C77" s="3" t="n">
         <f aca="false">D77/100</f>
-        <v>0.927</v>
+        <v>0.881</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>92.7</v>
+        <v>88.1</v>
       </c>
       <c r="E77" s="3" t="n">
         <f aca="false">F77/100</f>
-        <v>0.8344</v>
+        <v>0.927</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>83.44</v>
+        <v>92.7</v>
       </c>
       <c r="G77" s="3" t="n">
         <f aca="false">H77/100</f>
-        <v>0.881</v>
+        <v>0.8344</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>88.1</v>
+        <v>83.44</v>
       </c>
       <c r="I77" s="3" t="n">
         <f aca="false">J77/100</f>
@@ -3628,24 +3628,24 @@
       </c>
       <c r="C78" s="3" t="n">
         <f aca="false">D78/100</f>
-        <v>0.9783</v>
+        <v>0.9823</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>97.83</v>
+        <v>98.23</v>
       </c>
       <c r="E78" s="3" t="n">
         <f aca="false">F78/100</f>
-        <v>0.9861</v>
+        <v>0.9783</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>98.61</v>
+        <v>97.83</v>
       </c>
       <c r="G78" s="3" t="n">
         <f aca="false">H78/100</f>
-        <v>0.9823</v>
+        <v>0.9861</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>98.23</v>
+        <v>98.61</v>
       </c>
       <c r="I78" s="3" t="n">
         <f aca="false">J78/100</f>
@@ -3667,24 +3667,24 @@
       </c>
       <c r="C79" s="3" t="n">
         <f aca="false">D79/100</f>
-        <v>0.9974</v>
+        <v>0.9978</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>99.74</v>
+        <v>99.78</v>
       </c>
       <c r="E79" s="3" t="n">
         <f aca="false">F79/100</f>
-        <v>0.9983</v>
+        <v>0.9974</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>99.83</v>
+        <v>99.74</v>
       </c>
       <c r="G79" s="3" t="n">
         <f aca="false">H79/100</f>
-        <v>0.9978</v>
+        <v>0.9983</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>99.78</v>
+        <v>99.83</v>
       </c>
       <c r="I79" s="3" t="n">
         <f aca="false">J79/100</f>
@@ -3706,24 +3706,24 @@
       </c>
       <c r="C80" s="3" t="n">
         <f aca="false">D80/100</f>
-        <v>0.7819</v>
+        <v>0.8153</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>78.19</v>
+        <v>81.53</v>
       </c>
       <c r="E80" s="3" t="n">
         <f aca="false">F80/100</f>
-        <v>0.8499</v>
+        <v>0.7819</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>84.99</v>
+        <v>78.19</v>
       </c>
       <c r="G80" s="3" t="n">
         <f aca="false">H80/100</f>
-        <v>0.8153</v>
+        <v>0.8499</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>81.53</v>
+        <v>84.99</v>
       </c>
       <c r="I80" s="3" t="n">
         <f aca="false">J80/100</f>
@@ -3745,24 +3745,24 @@
       </c>
       <c r="C81" s="3" t="n">
         <f aca="false">D81/100</f>
-        <v>0.995</v>
+        <v>0.9959</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>99.5</v>
+        <v>99.59</v>
       </c>
       <c r="E81" s="3" t="n">
         <f aca="false">F81/100</f>
-        <v>0.9968</v>
+        <v>0.995</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>99.68</v>
+        <v>99.5</v>
       </c>
       <c r="G81" s="3" t="n">
         <f aca="false">H81/100</f>
-        <v>0.9959</v>
+        <v>0.9968</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>99.59</v>
+        <v>99.68</v>
       </c>
       <c r="I81" s="3" t="n">
         <f aca="false">J81/100</f>
@@ -3784,24 +3784,24 @@
       </c>
       <c r="C82" s="3" t="n">
         <f aca="false">D82/100</f>
-        <v>0.9491</v>
+        <v>0.9606</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>94.91</v>
+        <v>96.06</v>
       </c>
       <c r="E82" s="3" t="n">
         <f aca="false">F82/100</f>
-        <v>0.9667</v>
+        <v>0.9491</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>96.67</v>
+        <v>94.91</v>
       </c>
       <c r="G82" s="3" t="n">
         <f aca="false">H82/100</f>
-        <v>0.9606</v>
+        <v>0.9667</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>96.06</v>
+        <v>96.67</v>
       </c>
       <c r="I82" s="3" t="n">
         <f aca="false">J82/100</f>
@@ -3823,24 +3823,24 @@
       </c>
       <c r="C83" s="3" t="n">
         <f aca="false">D83/100</f>
-        <v>0.7939</v>
+        <v>0.8466</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>79.39</v>
+        <v>84.66</v>
       </c>
       <c r="E83" s="3" t="n">
         <f aca="false">F83/100</f>
-        <v>0.8996</v>
+        <v>0.7939</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>89.96</v>
+        <v>79.39</v>
       </c>
       <c r="G83" s="3" t="n">
         <f aca="false">H83/100</f>
-        <v>0.8466</v>
+        <v>0.8996</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>84.66</v>
+        <v>89.96</v>
       </c>
       <c r="I83" s="3" t="n">
         <f aca="false">J83/100</f>
@@ -3862,24 +3862,24 @@
       </c>
       <c r="C84" s="3" t="n">
         <f aca="false">D84/100</f>
-        <v>0.8493</v>
+        <v>0.7664</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>84.93</v>
+        <v>76.64</v>
       </c>
       <c r="E84" s="3" t="n">
         <f aca="false">F84/100</f>
-        <v>0.6775</v>
+        <v>0.8493</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>67.75</v>
+        <v>84.93</v>
       </c>
       <c r="G84" s="3" t="n">
         <f aca="false">H84/100</f>
-        <v>0.7664</v>
+        <v>0.6775</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>76.64</v>
+        <v>67.75</v>
       </c>
       <c r="I84" s="3" t="n">
         <f aca="false">J84/100</f>
@@ -3901,24 +3901,24 @@
       </c>
       <c r="C85" s="3" t="n">
         <f aca="false">D85/100</f>
-        <v>0.9991</v>
+        <v>0.9989</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>99.91</v>
+        <v>99.89</v>
       </c>
       <c r="E85" s="3" t="n">
         <f aca="false">F85/100</f>
-        <v>0.9987</v>
+        <v>0.9991</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>99.87</v>
+        <v>99.91</v>
       </c>
       <c r="G85" s="3" t="n">
         <f aca="false">H85/100</f>
-        <v>0.9989</v>
+        <v>0.9987</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>99.89</v>
+        <v>99.87</v>
       </c>
       <c r="I85" s="3" t="n">
         <f aca="false">J85/100</f>
@@ -3940,24 +3940,24 @@
       </c>
       <c r="C86" s="3" t="n">
         <f aca="false">D86/100</f>
-        <v>0.9331</v>
+        <v>0.9507</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>93.31</v>
+        <v>95.07</v>
       </c>
       <c r="E86" s="3" t="n">
         <f aca="false">F86/100</f>
-        <v>0.9685</v>
+        <v>0.9331</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>96.85</v>
+        <v>93.31</v>
       </c>
       <c r="G86" s="3" t="n">
         <f aca="false">H86/100</f>
-        <v>0.9507</v>
+        <v>0.9685</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>95.07</v>
+        <v>96.85</v>
       </c>
       <c r="I86" s="3" t="n">
         <f aca="false">J86/100</f>
@@ -3979,24 +3979,24 @@
       </c>
       <c r="C87" s="3" t="n">
         <f aca="false">D87/100</f>
-        <v>0.3409</v>
+        <v>0.483</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>34.09</v>
+        <v>48.3</v>
       </c>
       <c r="E87" s="3" t="n">
         <f aca="false">F87/100</f>
-        <v>0.627</v>
+        <v>0.3409</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>62.7</v>
+        <v>34.09</v>
       </c>
       <c r="G87" s="3" t="n">
         <f aca="false">H87/100</f>
-        <v>0.483</v>
+        <v>0.627</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>48.3</v>
+        <v>62.7</v>
       </c>
       <c r="I87" s="3" t="n">
         <f aca="false">J87/100</f>
@@ -4018,24 +4018,24 @@
       </c>
       <c r="C88" s="3" t="n">
         <f aca="false">D88/100</f>
-        <v>0.778</v>
+        <v>0.861</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>77.8</v>
+        <v>86.1</v>
       </c>
       <c r="E88" s="3" t="n">
         <f aca="false">F88/100</f>
-        <v>0.9385</v>
+        <v>0.778</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>93.85</v>
+        <v>77.8</v>
       </c>
       <c r="G88" s="3" t="n">
         <f aca="false">H88/100</f>
-        <v>0.861</v>
+        <v>0.9385</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>86.1</v>
+        <v>93.85</v>
       </c>
       <c r="I88" s="3" t="n">
         <f aca="false">J88/100</f>
@@ -4057,24 +4057,24 @@
       </c>
       <c r="C89" s="3" t="n">
         <f aca="false">D89/100</f>
-        <v>0.9983</v>
+        <v>0.9982</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>99.83</v>
+        <v>99.82</v>
       </c>
       <c r="E89" s="3" t="n">
         <f aca="false">F89/100</f>
-        <v>0.9979</v>
+        <v>0.9983</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>99.79</v>
+        <v>99.83</v>
       </c>
       <c r="G89" s="3" t="n">
         <f aca="false">H89/100</f>
-        <v>0.9982</v>
+        <v>0.9979</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>99.82</v>
+        <v>99.79</v>
       </c>
       <c r="I89" s="3" t="n">
         <f aca="false">J89/100</f>
@@ -4096,24 +4096,24 @@
       </c>
       <c r="C90" s="3" t="n">
         <f aca="false">D90/100</f>
-        <v>0.967</v>
+        <v>0.978</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>96.7</v>
+        <v>97.8</v>
       </c>
       <c r="E90" s="3" t="n">
         <f aca="false">F90/100</f>
-        <v>0.9881</v>
+        <v>0.967</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>98.81</v>
+        <v>96.7</v>
       </c>
       <c r="G90" s="3" t="n">
         <f aca="false">H90/100</f>
-        <v>0.978</v>
+        <v>0.9881</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>97.8</v>
+        <v>98.81</v>
       </c>
       <c r="I90" s="3" t="n">
         <f aca="false">J90/100</f>
@@ -4135,24 +4135,24 @@
       </c>
       <c r="C91" s="3" t="n">
         <f aca="false">D91/100</f>
-        <v>0.7238</v>
+        <v>0.748</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>72.38</v>
+        <v>74.8</v>
       </c>
       <c r="E91" s="3" t="n">
         <f aca="false">F91/100</f>
-        <v>0.7728</v>
+        <v>0.7238</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>77.28</v>
+        <v>72.38</v>
       </c>
       <c r="G91" s="3" t="n">
         <f aca="false">H91/100</f>
-        <v>0.748</v>
+        <v>0.7728</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>74.8</v>
+        <v>77.28</v>
       </c>
       <c r="I91" s="3" t="n">
         <f aca="false">J91/100</f>
@@ -4174,24 +4174,24 @@
       </c>
       <c r="C92" s="3" t="n">
         <f aca="false">D92/100</f>
-        <v>0.935</v>
+        <v>0.9485</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>93.5</v>
+        <v>94.85</v>
       </c>
       <c r="E92" s="3" t="n">
         <f aca="false">F92/100</f>
-        <v>0.9612</v>
+        <v>0.935</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>96.12</v>
+        <v>93.5</v>
       </c>
       <c r="G92" s="3" t="n">
         <f aca="false">H92/100</f>
-        <v>0.9485</v>
+        <v>0.9612</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>94.85</v>
+        <v>96.12</v>
       </c>
       <c r="I92" s="3" t="n">
         <f aca="false">J92/100</f>
@@ -4213,24 +4213,24 @@
       </c>
       <c r="C93" s="3" t="n">
         <f aca="false">D93/100</f>
-        <v>0.552</v>
+        <v>0.6214</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>55.2</v>
+        <v>62.14</v>
       </c>
       <c r="E93" s="3" t="n">
         <f aca="false">F93/100</f>
-        <v>0.6975</v>
+        <v>0.552</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>69.75</v>
+        <v>55.2</v>
       </c>
       <c r="G93" s="3" t="n">
         <f aca="false">H93/100</f>
-        <v>0.6214</v>
+        <v>0.6975</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>62.14</v>
+        <v>69.75</v>
       </c>
       <c r="I93" s="3" t="n">
         <f aca="false">J93/100</f>
@@ -4252,24 +4252,24 @@
       </c>
       <c r="C94" s="3" t="n">
         <f aca="false">D94/100</f>
-        <v>0.9811</v>
+        <v>0.9773</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>98.11</v>
+        <v>97.73</v>
       </c>
       <c r="E94" s="3" t="n">
         <f aca="false">F94/100</f>
-        <v>0.973</v>
+        <v>0.9811</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>97.3</v>
+        <v>98.11</v>
       </c>
       <c r="G94" s="3" t="n">
         <f aca="false">H94/100</f>
-        <v>0.9773</v>
+        <v>0.973</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>97.73</v>
+        <v>97.3</v>
       </c>
       <c r="I94" s="3" t="n">
         <f aca="false">J94/100</f>
@@ -4291,24 +4291,24 @@
       </c>
       <c r="C95" s="3" t="n">
         <f aca="false">D95/100</f>
-        <v>0.2574</v>
+        <v>0.3547</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>25.74</v>
+        <v>35.47</v>
       </c>
       <c r="E95" s="3" t="n">
         <f aca="false">F95/100</f>
-        <v>0.4618</v>
+        <v>0.2574</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>46.18</v>
+        <v>25.74</v>
       </c>
       <c r="G95" s="3" t="n">
         <f aca="false">H95/100</f>
-        <v>0.3547</v>
+        <v>0.4618</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>35.47</v>
+        <v>46.18</v>
       </c>
       <c r="I95" s="3" t="n">
         <f aca="false">J95/100</f>
@@ -4330,24 +4330,24 @@
       </c>
       <c r="C96" s="3" t="n">
         <f aca="false">D96/100</f>
-        <v>0.9599</v>
+        <v>0.945</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>95.99</v>
+        <v>94.5</v>
       </c>
       <c r="E96" s="3" t="n">
         <f aca="false">F96/100</f>
-        <v>0.9301</v>
+        <v>0.9599</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>93.01</v>
+        <v>95.99</v>
       </c>
       <c r="G96" s="3" t="n">
         <f aca="false">H96/100</f>
-        <v>0.945</v>
+        <v>0.9301</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>94.5</v>
+        <v>93.01</v>
       </c>
       <c r="I96" s="3" t="n">
         <f aca="false">J96/100</f>
@@ -4369,24 +4369,24 @@
       </c>
       <c r="C97" s="3" t="n">
         <f aca="false">D97/100</f>
-        <v>0.6459</v>
+        <v>0.7375</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>64.59</v>
+        <v>73.75</v>
       </c>
       <c r="E97" s="3" t="n">
         <f aca="false">F97/100</f>
-        <v>0.833</v>
+        <v>0.6459</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>83.3</v>
+        <v>64.59</v>
       </c>
       <c r="G97" s="3" t="n">
         <f aca="false">H97/100</f>
-        <v>0.7375</v>
+        <v>0.833</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>73.75</v>
+        <v>83.3</v>
       </c>
       <c r="I97" s="3" t="n">
         <f aca="false">J97/100</f>
@@ -4408,24 +4408,24 @@
       </c>
       <c r="C98" s="3" t="n">
         <f aca="false">D98/100</f>
-        <v>0.8937</v>
+        <v>0.9133</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>89.37</v>
+        <v>91.33</v>
       </c>
       <c r="E98" s="3" t="n">
         <f aca="false">F98/100</f>
-        <v>0.9336</v>
+        <v>0.8937</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>93.36</v>
+        <v>89.37</v>
       </c>
       <c r="G98" s="3" t="n">
         <f aca="false">H98/100</f>
-        <v>0.9133</v>
+        <v>0.9336</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>91.33</v>
+        <v>93.36</v>
       </c>
       <c r="I98" s="3" t="n">
         <f aca="false">J98/100</f>
@@ -4447,24 +4447,24 @@
       </c>
       <c r="C99" s="3" t="n">
         <f aca="false">D99/100</f>
-        <v>0.4335</v>
+        <v>0.535</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>43.35</v>
+        <v>53.5</v>
       </c>
       <c r="E99" s="3" t="n">
         <f aca="false">F99/100</f>
-        <v>0.6375</v>
+        <v>0.4335</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>63.75</v>
+        <v>43.35</v>
       </c>
       <c r="G99" s="3" t="n">
         <f aca="false">H99/100</f>
-        <v>0.535</v>
+        <v>0.6375</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>53.5</v>
+        <v>63.75</v>
       </c>
       <c r="I99" s="3" t="n">
         <f aca="false">J99/100</f>
@@ -4486,24 +4486,24 @@
       </c>
       <c r="C100" s="3" t="n">
         <f aca="false">D100/100</f>
-        <v>0.9461</v>
+        <v>0.9538</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>94.61</v>
+        <v>95.38</v>
       </c>
       <c r="E100" s="3" t="n">
         <f aca="false">F100/100</f>
-        <v>0.9623</v>
+        <v>0.9461</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>96.23</v>
+        <v>94.61</v>
       </c>
       <c r="G100" s="3" t="n">
         <f aca="false">H100/100</f>
-        <v>0.9538</v>
+        <v>0.9623</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>95.38</v>
+        <v>96.23</v>
       </c>
       <c r="I100" s="3" t="n">
         <f aca="false">J100/100</f>
@@ -4525,24 +4525,24 @@
       </c>
       <c r="C101" s="3" t="n">
         <f aca="false">D101/100</f>
-        <v>0.9914</v>
+        <v>0.9936</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>99.14</v>
+        <v>99.36</v>
       </c>
       <c r="E101" s="3" t="n">
         <f aca="false">F101/100</f>
-        <v>0.996</v>
+        <v>0.9914</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>99.6</v>
+        <v>99.14</v>
       </c>
       <c r="G101" s="3" t="n">
         <f aca="false">H101/100</f>
-        <v>0.9936</v>
+        <v>0.996</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>99.36</v>
+        <v>99.6</v>
       </c>
       <c r="I101" s="3" t="n">
         <f aca="false">J101/100</f>
@@ -4564,24 +4564,24 @@
       </c>
       <c r="C102" s="3" t="n">
         <f aca="false">D102/100</f>
-        <v>0.9865</v>
+        <v>0.9842</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>98.65</v>
+        <v>98.42</v>
       </c>
       <c r="E102" s="3" t="n">
         <f aca="false">F102/100</f>
-        <v>0.9819</v>
+        <v>0.9865</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>98.19</v>
+        <v>98.65</v>
       </c>
       <c r="G102" s="3" t="n">
         <f aca="false">H102/100</f>
-        <v>0.9842</v>
+        <v>0.9819</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>98.42</v>
+        <v>98.19</v>
       </c>
       <c r="I102" s="3" t="n">
         <f aca="false">J102/100</f>
@@ -4603,24 +4603,24 @@
       </c>
       <c r="C103" s="3" t="n">
         <f aca="false">D103/100</f>
-        <v>0.9827</v>
+        <v>0.9885</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>98.27</v>
+        <v>98.85</v>
       </c>
       <c r="E103" s="3" t="n">
         <f aca="false">F103/100</f>
-        <v>0.9945</v>
+        <v>0.9827</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>99.45</v>
+        <v>98.27</v>
       </c>
       <c r="G103" s="3" t="n">
         <f aca="false">H103/100</f>
-        <v>0.9885</v>
+        <v>0.9945</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>98.85</v>
+        <v>99.45</v>
       </c>
       <c r="I103" s="3" t="n">
         <f aca="false">J103/100</f>
@@ -4642,24 +4642,24 @@
       </c>
       <c r="C104" s="3" t="n">
         <f aca="false">D104/100</f>
-        <v>0.503</v>
+        <v>0.6066</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>50.3</v>
+        <v>60.66</v>
       </c>
       <c r="E104" s="3" t="n">
         <f aca="false">F104/100</f>
-        <v>0.726</v>
+        <v>0.503</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>72.6</v>
+        <v>50.3</v>
       </c>
       <c r="G104" s="3" t="n">
         <f aca="false">H104/100</f>
-        <v>0.6066</v>
+        <v>0.726</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>60.66</v>
+        <v>72.6</v>
       </c>
       <c r="I104" s="3" t="n">
         <f aca="false">J104/100</f>
@@ -4681,24 +4681,24 @@
       </c>
       <c r="C105" s="3" t="n">
         <f aca="false">D105/100</f>
-        <v>0.9144</v>
+        <v>0.9153</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>91.44</v>
+        <v>91.53</v>
       </c>
       <c r="E105" s="3" t="n">
         <f aca="false">F105/100</f>
-        <v>0.9163</v>
+        <v>0.9144</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>91.63</v>
+        <v>91.44</v>
       </c>
       <c r="G105" s="3" t="n">
         <f aca="false">H105/100</f>
-        <v>0.9153</v>
+        <v>0.9163</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>91.53</v>
+        <v>91.63</v>
       </c>
       <c r="I105" s="3" t="n">
         <f aca="false">J105/100</f>
@@ -4720,24 +4720,24 @@
       </c>
       <c r="C106" s="3" t="n">
         <f aca="false">D106/100</f>
-        <v>0.5972</v>
+        <v>0.6791</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>59.72</v>
+        <v>67.91</v>
       </c>
       <c r="E106" s="3" t="n">
         <f aca="false">F106/100</f>
-        <v>0.7859</v>
+        <v>0.5972</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>78.59</v>
+        <v>59.72</v>
       </c>
       <c r="G106" s="3" t="n">
         <f aca="false">H106/100</f>
-        <v>0.6791</v>
+        <v>0.7859</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>67.91</v>
+        <v>78.59</v>
       </c>
       <c r="I106" s="3" t="n">
         <f aca="false">J106/100</f>
@@ -4759,24 +4759,24 @@
       </c>
       <c r="C107" s="3" t="n">
         <f aca="false">D107/100</f>
-        <v>0.8278</v>
+        <v>0.8261</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>82.78</v>
+        <v>82.61</v>
       </c>
       <c r="E107" s="3" t="n">
         <f aca="false">F107/100</f>
-        <v>0.8244</v>
+        <v>0.8278</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>82.44</v>
+        <v>82.78</v>
       </c>
       <c r="G107" s="3" t="n">
         <f aca="false">H107/100</f>
-        <v>0.8261</v>
+        <v>0.8244</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>82.61</v>
+        <v>82.44</v>
       </c>
       <c r="I107" s="3" t="n">
         <f aca="false">J107/100</f>
@@ -4798,24 +4798,24 @@
       </c>
       <c r="C108" s="3" t="n">
         <f aca="false">D108/100</f>
-        <v>0.2255</v>
+        <v>0.3056</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>22.55</v>
+        <v>30.56</v>
       </c>
       <c r="E108" s="3" t="n">
         <f aca="false">F108/100</f>
-        <v>0.3906</v>
+        <v>0.2255</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>39.06</v>
+        <v>22.55</v>
       </c>
       <c r="G108" s="3" t="n">
         <f aca="false">H108/100</f>
-        <v>0.3056</v>
+        <v>0.3906</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>30.56</v>
+        <v>39.06</v>
       </c>
       <c r="I108" s="3" t="n">
         <f aca="false">J108/100</f>
@@ -4837,24 +4837,24 @@
       </c>
       <c r="C109" s="3" t="n">
         <f aca="false">D109/100</f>
-        <v>0.5266</v>
+        <v>0.6202</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>52.66</v>
+        <v>62.02</v>
       </c>
       <c r="E109" s="3" t="n">
         <f aca="false">F109/100</f>
-        <v>0.7126</v>
+        <v>0.5266</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>71.26</v>
+        <v>52.66</v>
       </c>
       <c r="G109" s="3" t="n">
         <f aca="false">H109/100</f>
-        <v>0.6202</v>
+        <v>0.7126</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>62.02</v>
+        <v>71.26</v>
       </c>
       <c r="I109" s="3" t="n">
         <f aca="false">J109/100</f>
@@ -4876,24 +4876,24 @@
       </c>
       <c r="C110" s="3" t="n">
         <f aca="false">D110/100</f>
-        <v>0.9269</v>
+        <v>0.9565</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>92.69</v>
+        <v>95.65</v>
       </c>
       <c r="E110" s="3" t="n">
         <f aca="false">F110/100</f>
-        <v>0.9699</v>
+        <v>0.9269</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>96.99</v>
+        <v>92.69</v>
       </c>
       <c r="G110" s="3" t="n">
         <f aca="false">H110/100</f>
-        <v>0.9565</v>
+        <v>0.9699</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>95.65</v>
+        <v>96.99</v>
       </c>
       <c r="I110" s="3" t="n">
         <f aca="false">J110/100</f>
@@ -4915,24 +4915,24 @@
       </c>
       <c r="C111" s="3" t="n">
         <f aca="false">D111/100</f>
-        <v>0.4647</v>
+        <v>0.5913</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>46.47</v>
+        <v>59.13</v>
       </c>
       <c r="E111" s="3" t="n">
         <f aca="false">F111/100</f>
-        <v>0.7112</v>
+        <v>0.4647</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>71.12</v>
+        <v>46.47</v>
       </c>
       <c r="G111" s="3" t="n">
         <f aca="false">H111/100</f>
-        <v>0.5913</v>
+        <v>0.7112</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>59.13</v>
+        <v>71.12</v>
       </c>
       <c r="I111" s="3" t="n">
         <f aca="false">J111/100</f>
@@ -4954,24 +4954,24 @@
       </c>
       <c r="C112" s="3" t="n">
         <f aca="false">D112/100</f>
-        <v>0.9634</v>
+        <v>0.9659</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>96.34</v>
+        <v>96.59</v>
       </c>
       <c r="E112" s="3" t="n">
         <f aca="false">F112/100</f>
-        <v>0.9681</v>
+        <v>0.9634</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>96.81</v>
+        <v>96.34</v>
       </c>
       <c r="G112" s="3" t="n">
         <f aca="false">H112/100</f>
-        <v>0.9659</v>
+        <v>0.9681</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>96.59</v>
+        <v>96.81</v>
       </c>
       <c r="I112" s="3" t="n">
         <f aca="false">J112/100</f>
@@ -4993,24 +4993,24 @@
       </c>
       <c r="C113" s="3" t="n">
         <f aca="false">D113/100</f>
-        <v>0.9488</v>
+        <v>0.9541</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>94.88</v>
+        <v>95.41</v>
       </c>
       <c r="E113" s="3" t="n">
         <f aca="false">F113/100</f>
-        <v>0.9597</v>
+        <v>0.9488</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>95.97</v>
+        <v>94.88</v>
       </c>
       <c r="G113" s="3" t="n">
         <f aca="false">H113/100</f>
-        <v>0.9541</v>
+        <v>0.9597</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>95.41</v>
+        <v>95.97</v>
       </c>
       <c r="I113" s="3" t="n">
         <f aca="false">J113/100</f>
@@ -5032,24 +5032,24 @@
       </c>
       <c r="C114" s="3" t="n">
         <f aca="false">D114/100</f>
-        <v>0.579</v>
+        <v>0.616</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>57.9</v>
+        <v>61.6</v>
       </c>
       <c r="E114" s="3" t="n">
         <f aca="false">F114/100</f>
-        <v>0.6529</v>
+        <v>0.579</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>65.29</v>
+        <v>57.9</v>
       </c>
       <c r="G114" s="3" t="n">
         <f aca="false">H114/100</f>
-        <v>0.616</v>
+        <v>0.6529</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>61.6</v>
+        <v>65.29</v>
       </c>
       <c r="I114" s="3" t="n">
         <f aca="false">J114/100</f>
@@ -5071,24 +5071,24 @@
       </c>
       <c r="C115" s="3" t="n">
         <f aca="false">D115/100</f>
-        <v>0.9353</v>
+        <v>0.9402</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>93.53</v>
+        <v>94.02</v>
       </c>
       <c r="E115" s="3" t="n">
         <f aca="false">F115/100</f>
-        <v>0.9451</v>
+        <v>0.9353</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>94.51</v>
+        <v>93.53</v>
       </c>
       <c r="G115" s="3" t="n">
         <f aca="false">H115/100</f>
-        <v>0.9402</v>
+        <v>0.9451</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>94.02</v>
+        <v>94.51</v>
       </c>
       <c r="I115" s="3" t="n">
         <f aca="false">J115/100</f>
@@ -5110,24 +5110,24 @@
       </c>
       <c r="C116" s="3" t="n">
         <f aca="false">D116/100</f>
-        <v>0.917</v>
+        <v>0.9441</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>91.7</v>
+        <v>94.41</v>
       </c>
       <c r="E116" s="3" t="n">
         <f aca="false">F116/100</f>
-        <v>0.9712</v>
+        <v>0.917</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>97.12</v>
+        <v>91.7</v>
       </c>
       <c r="G116" s="3" t="n">
         <f aca="false">H116/100</f>
-        <v>0.9441</v>
+        <v>0.9712</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>94.41</v>
+        <v>97.12</v>
       </c>
       <c r="I116" s="3" t="n">
         <f aca="false">J116/100</f>
@@ -5149,24 +5149,24 @@
       </c>
       <c r="C117" s="3" t="n">
         <f aca="false">D117/100</f>
-        <v>0.9825</v>
+        <v>0.9874</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>98.25</v>
+        <v>98.74</v>
       </c>
       <c r="E117" s="3" t="n">
         <f aca="false">F117/100</f>
-        <v>0.9928</v>
+        <v>0.9825</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>99.28</v>
+        <v>98.25</v>
       </c>
       <c r="G117" s="3" t="n">
         <f aca="false">H117/100</f>
-        <v>0.9874</v>
+        <v>0.9928</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>98.74</v>
+        <v>99.28</v>
       </c>
       <c r="I117" s="3" t="n">
         <f aca="false">J117/100</f>
@@ -5188,24 +5188,24 @@
       </c>
       <c r="C118" s="3" t="n">
         <f aca="false">D118/100</f>
-        <v>0.9507</v>
+        <v>0.9614</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>95.07</v>
+        <v>96.14</v>
       </c>
       <c r="E118" s="3" t="n">
         <f aca="false">F118/100</f>
-        <v>0.9735</v>
+        <v>0.9507</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>97.35</v>
+        <v>95.07</v>
       </c>
       <c r="G118" s="3" t="n">
         <f aca="false">H118/100</f>
-        <v>0.9614</v>
+        <v>0.9735</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>96.14</v>
+        <v>97.35</v>
       </c>
       <c r="I118" s="3" t="n">
         <f aca="false">J118/100</f>
@@ -5227,24 +5227,24 @@
       </c>
       <c r="C119" s="3" t="n">
         <f aca="false">D119/100</f>
-        <v>0.2576</v>
+        <v>0.374</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>25.76</v>
+        <v>37.4</v>
       </c>
       <c r="E119" s="3" t="n">
         <f aca="false">F119/100</f>
-        <v>0.4951</v>
+        <v>0.2576</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>49.51</v>
+        <v>25.76</v>
       </c>
       <c r="G119" s="3" t="n">
         <f aca="false">H119/100</f>
-        <v>0.374</v>
+        <v>0.4951</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>37.4</v>
+        <v>49.51</v>
       </c>
       <c r="I119" s="3" t="n">
         <f aca="false">J119/100</f>
@@ -5266,24 +5266,24 @@
       </c>
       <c r="C120" s="3" t="n">
         <f aca="false">D120/100</f>
-        <v>0.7462</v>
+        <v>0.803</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>74.62</v>
+        <v>80.3</v>
       </c>
       <c r="E120" s="3" t="n">
         <f aca="false">F120/100</f>
-        <v>0.8608</v>
+        <v>0.7462</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>86.08</v>
+        <v>74.62</v>
       </c>
       <c r="G120" s="3" t="n">
         <f aca="false">H120/100</f>
-        <v>0.803</v>
+        <v>0.8608</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>80.3</v>
+        <v>86.08</v>
       </c>
       <c r="I120" s="3" t="n">
         <f aca="false">J120/100</f>
@@ -5305,24 +5305,24 @@
       </c>
       <c r="C121" s="3" t="n">
         <f aca="false">D121/100</f>
-        <v>0.665</v>
+        <v>0.7704</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>66.5</v>
+        <v>77.04</v>
       </c>
       <c r="E121" s="3" t="n">
         <f aca="false">F121/100</f>
-        <v>0.8852</v>
+        <v>0.665</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>88.52</v>
+        <v>66.5</v>
       </c>
       <c r="G121" s="3" t="n">
         <f aca="false">H121/100</f>
-        <v>0.7704</v>
+        <v>0.8852</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>77.04</v>
+        <v>88.52</v>
       </c>
       <c r="I121" s="3" t="n">
         <f aca="false">J121/100</f>
@@ -5344,24 +5344,24 @@
       </c>
       <c r="C122" s="3" t="n">
         <f aca="false">D122/100</f>
-        <v>0.9376</v>
+        <v>0.9378</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>93.76</v>
+        <v>93.78</v>
       </c>
       <c r="E122" s="3" t="n">
         <f aca="false">F122/100</f>
-        <v>0.9379</v>
+        <v>0.9376</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>93.79</v>
+        <v>93.76</v>
       </c>
       <c r="G122" s="3" t="n">
         <f aca="false">H122/100</f>
-        <v>0.9378</v>
+        <v>0.9379</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>93.78</v>
+        <v>93.79</v>
       </c>
       <c r="I122" s="3" t="n">
         <f aca="false">J122/100</f>
@@ -5383,24 +5383,24 @@
       </c>
       <c r="C123" s="3" t="n">
         <f aca="false">D123/100</f>
-        <v>0.6939</v>
+        <v>0.7322</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>69.39</v>
+        <v>73.22</v>
       </c>
       <c r="E123" s="3" t="n">
         <f aca="false">F123/100</f>
-        <v>0.7756</v>
+        <v>0.6939</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>77.56</v>
+        <v>69.39</v>
       </c>
       <c r="G123" s="3" t="n">
         <f aca="false">H123/100</f>
-        <v>0.7322</v>
+        <v>0.7756</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>73.22</v>
+        <v>77.56</v>
       </c>
       <c r="I123" s="3" t="n">
         <f aca="false">J123/100</f>
@@ -5422,24 +5422,24 @@
       </c>
       <c r="C124" s="3" t="n">
         <f aca="false">D124/100</f>
-        <v>0.986</v>
+        <v>0.9884</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>98.6</v>
+        <v>98.84</v>
       </c>
       <c r="E124" s="3" t="n">
         <f aca="false">F124/100</f>
-        <v>0.9911</v>
+        <v>0.986</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>99.11</v>
+        <v>98.6</v>
       </c>
       <c r="G124" s="3" t="n">
         <f aca="false">H124/100</f>
-        <v>0.9884</v>
+        <v>0.9911</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>98.84</v>
+        <v>99.11</v>
       </c>
       <c r="I124" s="3" t="n">
         <f aca="false">J124/100</f>
@@ -5500,24 +5500,24 @@
       </c>
       <c r="C126" s="3" t="n">
         <f aca="false">D126/100</f>
-        <v>0.9925</v>
+        <v>0.991</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>99.25</v>
+        <v>99.1</v>
       </c>
       <c r="E126" s="3" t="n">
         <f aca="false">F126/100</f>
-        <v>0.9896</v>
+        <v>0.9925</v>
       </c>
       <c r="F126" s="3" t="n">
-        <v>98.96</v>
+        <v>99.25</v>
       </c>
       <c r="G126" s="3" t="n">
         <f aca="false">H126/100</f>
-        <v>0.991</v>
+        <v>0.9896</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>99.1</v>
+        <v>98.96</v>
       </c>
       <c r="I126" s="3" t="n">
         <f aca="false">J126/100</f>
@@ -5539,24 +5539,24 @@
       </c>
       <c r="C127" s="3" t="n">
         <f aca="false">D127/100</f>
-        <v>0.999</v>
+        <v>0.9992</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>99.9</v>
+        <v>99.92</v>
       </c>
       <c r="E127" s="3" t="n">
         <f aca="false">F127/100</f>
-        <v>0.9993</v>
+        <v>0.999</v>
       </c>
       <c r="F127" s="3" t="n">
-        <v>99.93</v>
+        <v>99.9</v>
       </c>
       <c r="G127" s="3" t="n">
         <f aca="false">H127/100</f>
-        <v>0.9992</v>
+        <v>0.9993</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>99.92</v>
+        <v>99.93</v>
       </c>
       <c r="I127" s="3" t="n">
         <f aca="false">J127/100</f>
@@ -5575,24 +5575,24 @@
       </c>
       <c r="C128" s="3" t="n">
         <f aca="false">D128/100</f>
-        <v>0.955</v>
+        <v>0.9563</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>95.5</v>
+        <v>95.63</v>
       </c>
       <c r="E128" s="3" t="n">
         <f aca="false">F128/100</f>
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="G128" s="3" t="n">
         <f aca="false">H128/100</f>
-        <v>0.9563</v>
+        <v>0.958</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>95.63</v>
+        <v>95.8</v>
       </c>
       <c r="I128" s="3" t="n">
         <f aca="false">J128/100</f>
@@ -5611,24 +5611,24 @@
       </c>
       <c r="C129" s="3" t="n">
         <f aca="false">D129/100</f>
-        <v>0.8952</v>
+        <v>0.9282</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>89.52</v>
+        <v>92.82</v>
       </c>
       <c r="E129" s="3" t="n">
         <f aca="false">F129/100</f>
-        <v>0.9616</v>
+        <v>0.8952</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>96.16</v>
+        <v>89.52</v>
       </c>
       <c r="G129" s="3" t="n">
         <f aca="false">H129/100</f>
-        <v>0.9282</v>
+        <v>0.9616</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>92.82</v>
+        <v>96.16</v>
       </c>
       <c r="I129" s="3" t="n">
         <f aca="false">J129/100</f>
@@ -5650,24 +5650,24 @@
       </c>
       <c r="C130" s="3" t="n">
         <f aca="false">D130/100</f>
-        <v>0.398</v>
+        <v>0.519</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>39.8</v>
+        <v>51.9</v>
       </c>
       <c r="E130" s="3" t="n">
         <f aca="false">F130/100</f>
-        <v>0.6481</v>
+        <v>0.398</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>64.81</v>
+        <v>39.8</v>
       </c>
       <c r="G130" s="3" t="n">
         <f aca="false">H130/100</f>
-        <v>0.519</v>
+        <v>0.6481</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>51.9</v>
+        <v>64.81</v>
       </c>
       <c r="I130" s="3" t="n">
         <f aca="false">J130/100</f>
@@ -5689,24 +5689,24 @@
       </c>
       <c r="C131" s="3" t="n">
         <f aca="false">D131/100</f>
-        <v>0.9823</v>
+        <v>0.9884</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>98.23</v>
+        <v>98.84</v>
       </c>
       <c r="E131" s="3" t="n">
         <f aca="false">F131/100</f>
-        <v>0.995</v>
+        <v>0.9823</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>99.5</v>
+        <v>98.23</v>
       </c>
       <c r="G131" s="3" t="n">
         <f aca="false">H131/100</f>
-        <v>0.9884</v>
+        <v>0.995</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>98.84</v>
+        <v>99.5</v>
       </c>
       <c r="I131" s="3" t="n">
         <f aca="false">J131/100</f>
@@ -5728,24 +5728,24 @@
       </c>
       <c r="C132" s="3" t="n">
         <f aca="false">D132/100</f>
-        <v>0.9635</v>
+        <v>0.9587</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>96.35</v>
+        <v>95.87</v>
       </c>
       <c r="E132" s="3" t="n">
         <f aca="false">F132/100</f>
-        <v>0.9541</v>
+        <v>0.9635</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>95.41</v>
+        <v>96.35</v>
       </c>
       <c r="G132" s="3" t="n">
         <f aca="false">H132/100</f>
-        <v>0.9587</v>
+        <v>0.9541</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>95.87</v>
+        <v>95.41</v>
       </c>
       <c r="I132" s="3" t="n">
         <f aca="false">J132/100</f>
@@ -5767,24 +5767,24 @@
       </c>
       <c r="C133" s="3" t="n">
         <f aca="false">D133/100</f>
-        <v>0.3485</v>
+        <v>0.4321</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>34.85</v>
+        <v>43.21</v>
       </c>
       <c r="E133" s="3" t="n">
         <f aca="false">F133/100</f>
-        <v>0.5165</v>
+        <v>0.3485</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>51.65</v>
+        <v>34.85</v>
       </c>
       <c r="G133" s="3" t="n">
         <f aca="false">H133/100</f>
-        <v>0.4321</v>
+        <v>0.5165</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>43.21</v>
+        <v>51.65</v>
       </c>
       <c r="I133" s="3" t="n">
         <f aca="false">J133/100</f>
@@ -5806,24 +5806,24 @@
       </c>
       <c r="C134" s="3" t="n">
         <f aca="false">D134/100</f>
-        <v>0.9592</v>
+        <v>0.9734</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>95.92</v>
+        <v>97.34</v>
       </c>
       <c r="E134" s="3" t="n">
         <f aca="false">F134/100</f>
-        <v>0.9885</v>
+        <v>0.9592</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>98.85</v>
+        <v>95.92</v>
       </c>
       <c r="G134" s="3" t="n">
         <f aca="false">H134/100</f>
-        <v>0.9734</v>
+        <v>0.9885</v>
       </c>
       <c r="H134" s="3" t="n">
-        <v>97.34</v>
+        <v>98.85</v>
       </c>
       <c r="I134" s="3" t="n">
         <f aca="false">J134/100</f>
@@ -5845,24 +5845,24 @@
       </c>
       <c r="C135" s="3" t="n">
         <f aca="false">D135/100</f>
-        <v>0.7363</v>
+        <v>0.8084</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>73.63</v>
+        <v>80.84</v>
       </c>
       <c r="E135" s="3" t="n">
         <f aca="false">F135/100</f>
-        <v>0.8776</v>
+        <v>0.7363</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>87.76</v>
+        <v>73.63</v>
       </c>
       <c r="G135" s="3" t="n">
         <f aca="false">H135/100</f>
-        <v>0.8084</v>
+        <v>0.8776</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>80.84</v>
+        <v>87.76</v>
       </c>
       <c r="I135" s="3" t="n">
         <f aca="false">J135/100</f>
@@ -5884,24 +5884,24 @@
       </c>
       <c r="C136" s="3" t="n">
         <f aca="false">D136/100</f>
-        <v>0.0369</v>
+        <v>0.054</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>3.69</v>
+        <v>5.4</v>
       </c>
       <c r="E136" s="3" t="n">
         <f aca="false">F136/100</f>
-        <v>0.072</v>
+        <v>0.0369</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>7.2</v>
+        <v>3.69</v>
       </c>
       <c r="G136" s="3" t="n">
         <f aca="false">H136/100</f>
-        <v>0.054</v>
+        <v>0.072</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="I136" s="3" t="n">
         <f aca="false">J136/100</f>
@@ -5920,24 +5920,24 @@
       </c>
       <c r="C137" s="3" t="n">
         <f aca="false">D137/100</f>
-        <v>0.908</v>
+        <v>0.9171</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>90.8</v>
+        <v>91.71</v>
       </c>
       <c r="E137" s="3" t="n">
         <f aca="false">F137/100</f>
-        <v>0.9277</v>
+        <v>0.908</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>92.77</v>
+        <v>90.8</v>
       </c>
       <c r="G137" s="3" t="n">
         <f aca="false">H137/100</f>
-        <v>0.9171</v>
+        <v>0.9277</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>91.71</v>
+        <v>92.77</v>
       </c>
       <c r="I137" s="3" t="n">
         <f aca="false">J137/100</f>
@@ -5959,24 +5959,24 @@
       </c>
       <c r="C138" s="3" t="n">
         <f aca="false">D138/100</f>
-        <v>0.8854</v>
+        <v>0.8842</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>88.54</v>
+        <v>88.42</v>
       </c>
       <c r="E138" s="3" t="n">
         <f aca="false">F138/100</f>
-        <v>0.8829</v>
+        <v>0.8854</v>
       </c>
       <c r="F138" s="3" t="n">
-        <v>88.29</v>
+        <v>88.54</v>
       </c>
       <c r="G138" s="3" t="n">
         <f aca="false">H138/100</f>
-        <v>0.8842</v>
+        <v>0.8829</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>88.42</v>
+        <v>88.29</v>
       </c>
       <c r="I138" s="3" t="n">
         <f aca="false">J138/100</f>
@@ -5998,24 +5998,24 @@
       </c>
       <c r="C139" s="3" t="n">
         <f aca="false">D139/100</f>
-        <v>0.8646</v>
+        <v>0.8705</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>86.46</v>
+        <v>87.05</v>
       </c>
       <c r="E139" s="3" t="n">
         <f aca="false">F139/100</f>
-        <v>0.8768</v>
+        <v>0.8646</v>
       </c>
       <c r="F139" s="3" t="n">
-        <v>87.68</v>
+        <v>86.46</v>
       </c>
       <c r="G139" s="3" t="n">
         <f aca="false">H139/100</f>
-        <v>0.8705</v>
+        <v>0.8768</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>87.05</v>
+        <v>87.68</v>
       </c>
       <c r="I139" s="3" t="n">
         <f aca="false">J139/100</f>
@@ -6037,24 +6037,24 @@
       </c>
       <c r="C140" s="3" t="n">
         <f aca="false">D140/100</f>
-        <v>0.5606</v>
+        <v>0.607</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>56.06</v>
+        <v>60.7</v>
       </c>
       <c r="E140" s="3" t="n">
         <f aca="false">F140/100</f>
-        <v>0.6544</v>
+        <v>0.5606</v>
       </c>
       <c r="F140" s="3" t="n">
-        <v>65.44</v>
+        <v>56.06</v>
       </c>
       <c r="G140" s="3" t="n">
         <f aca="false">H140/100</f>
-        <v>0.607</v>
+        <v>0.6544</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>60.7</v>
+        <v>65.44</v>
       </c>
       <c r="I140" s="3" t="n">
         <f aca="false">J140/100</f>
@@ -6076,24 +6076,24 @@
       </c>
       <c r="C141" s="3" t="n">
         <f aca="false">D141/100</f>
-        <v>0.2886</v>
+        <v>0.3452</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>28.86</v>
+        <v>34.52</v>
       </c>
       <c r="E141" s="3" t="n">
         <f aca="false">F141/100</f>
-        <v>0.4026</v>
+        <v>0.2886</v>
       </c>
       <c r="F141" s="3" t="n">
-        <v>40.26</v>
+        <v>28.86</v>
       </c>
       <c r="G141" s="3" t="n">
         <f aca="false">H141/100</f>
-        <v>0.3452</v>
+        <v>0.4026</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>34.52</v>
+        <v>40.26</v>
       </c>
       <c r="I141" s="3" t="n">
         <f aca="false">J141/100</f>
@@ -6115,24 +6115,24 @@
       </c>
       <c r="C142" s="3" t="n">
         <f aca="false">D142/100</f>
-        <v>0.9271</v>
+        <v>0.9438</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>92.71</v>
+        <v>94.38</v>
       </c>
       <c r="E142" s="3" t="n">
         <f aca="false">F142/100</f>
-        <v>0.9607</v>
+        <v>0.9271</v>
       </c>
       <c r="F142" s="3" t="n">
-        <v>96.07</v>
+        <v>92.71</v>
       </c>
       <c r="G142" s="3" t="n">
         <f aca="false">H142/100</f>
-        <v>0.9438</v>
+        <v>0.9607</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>94.38</v>
+        <v>96.07</v>
       </c>
       <c r="I142" s="3" t="n">
         <f aca="false">J142/100</f>
@@ -6154,24 +6154,24 @@
       </c>
       <c r="C143" s="3" t="n">
         <f aca="false">D143/100</f>
-        <v>0.9243</v>
+        <v>0.9377</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>92.43</v>
+        <v>93.77</v>
       </c>
       <c r="E143" s="3" t="n">
         <f aca="false">F143/100</f>
-        <v>0.952</v>
+        <v>0.9243</v>
       </c>
       <c r="F143" s="3" t="n">
-        <v>95.2</v>
+        <v>92.43</v>
       </c>
       <c r="G143" s="3" t="n">
         <f aca="false">H143/100</f>
-        <v>0.9377</v>
+        <v>0.952</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>93.77</v>
+        <v>95.2</v>
       </c>
       <c r="I143" s="3" t="n">
         <f aca="false">J143/100</f>
@@ -6193,24 +6193,24 @@
       </c>
       <c r="C144" s="3" t="n">
         <f aca="false">D144/100</f>
-        <v>0.7309</v>
+        <v>0.7789</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>73.09</v>
+        <v>77.89</v>
       </c>
       <c r="E144" s="3" t="n">
         <f aca="false">F144/100</f>
-        <v>0.832</v>
+        <v>0.7309</v>
       </c>
       <c r="F144" s="3" t="n">
-        <v>83.2</v>
+        <v>73.09</v>
       </c>
       <c r="G144" s="3" t="n">
         <f aca="false">H144/100</f>
-        <v>0.7789</v>
+        <v>0.832</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>77.89</v>
+        <v>83.2</v>
       </c>
       <c r="I144" s="3" t="n">
         <f aca="false">J144/100</f>
@@ -6232,24 +6232,24 @@
       </c>
       <c r="C145" s="3" t="n">
         <f aca="false">D145/100</f>
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="E145" s="3" t="n">
         <f aca="false">F145/100</f>
-        <v>0.9982</v>
+        <v>0.997</v>
       </c>
       <c r="F145" s="3" t="n">
-        <v>99.82</v>
+        <v>99.7</v>
       </c>
       <c r="G145" s="3" t="n">
         <f aca="false">H145/100</f>
-        <v>0.998</v>
+        <v>0.9982</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>99.8</v>
+        <v>99.82</v>
       </c>
       <c r="I145" s="3" t="n">
         <f aca="false">J145/100</f>
@@ -6271,24 +6271,24 @@
       </c>
       <c r="C146" s="3" t="n">
         <f aca="false">D146/100</f>
-        <v>0.6421</v>
+        <v>0.6807</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>64.21</v>
+        <v>68.07</v>
       </c>
       <c r="E146" s="3" t="n">
         <f aca="false">F146/100</f>
-        <v>0.7187</v>
+        <v>0.6421</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>71.87</v>
+        <v>64.21</v>
       </c>
       <c r="G146" s="3" t="n">
         <f aca="false">H146/100</f>
-        <v>0.6807</v>
+        <v>0.7187</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>68.07</v>
+        <v>71.87</v>
       </c>
       <c r="I146" s="3" t="n">
         <f aca="false">J146/100</f>
@@ -6310,24 +6310,24 @@
       </c>
       <c r="C147" s="3" t="n">
         <f aca="false">D147/100</f>
-        <v>0.5124</v>
+        <v>0.6375</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>51.24</v>
+        <v>63.75</v>
       </c>
       <c r="E147" s="3" t="n">
         <f aca="false">F147/100</f>
-        <v>0.7726</v>
+        <v>0.5124</v>
       </c>
       <c r="F147" s="3" t="n">
-        <v>77.26</v>
+        <v>51.24</v>
       </c>
       <c r="G147" s="3" t="n">
         <f aca="false">H147/100</f>
-        <v>0.6375</v>
+        <v>0.7726</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>63.75</v>
+        <v>77.26</v>
       </c>
       <c r="I147" s="3" t="n">
         <f aca="false">J147/100</f>
@@ -6349,24 +6349,24 @@
       </c>
       <c r="C148" s="3" t="n">
         <f aca="false">D148/100</f>
-        <v>0.9948</v>
+        <v>0.9941</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>99.48</v>
+        <v>99.41</v>
       </c>
       <c r="E148" s="3" t="n">
         <f aca="false">F148/100</f>
-        <v>0.9935</v>
+        <v>0.9948</v>
       </c>
       <c r="F148" s="3" t="n">
-        <v>99.35</v>
+        <v>99.48</v>
       </c>
       <c r="G148" s="3" t="n">
         <f aca="false">H148/100</f>
-        <v>0.9941</v>
+        <v>0.9935</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>99.41</v>
+        <v>99.35</v>
       </c>
       <c r="I148" s="3" t="n">
         <f aca="false">J148/100</f>
@@ -6388,24 +6388,24 @@
       </c>
       <c r="C149" s="3" t="n">
         <f aca="false">D149/100</f>
-        <v>0.983</v>
+        <v>0.987</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E149" s="3" t="n">
         <f aca="false">F149/100</f>
-        <v>0.9914</v>
+        <v>0.983</v>
       </c>
       <c r="F149" s="3" t="n">
-        <v>99.14</v>
+        <v>98.3</v>
       </c>
       <c r="G149" s="3" t="n">
         <f aca="false">H149/100</f>
-        <v>0.987</v>
+        <v>0.9914</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>98.7</v>
+        <v>99.14</v>
       </c>
       <c r="I149" s="3" t="n">
         <f aca="false">J149/100</f>
@@ -6427,24 +6427,24 @@
       </c>
       <c r="C150" s="3" t="n">
         <f aca="false">D150/100</f>
-        <v>0.7222</v>
+        <v>0.7904</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>72.22</v>
+        <v>79.04</v>
       </c>
       <c r="E150" s="3" t="n">
         <f aca="false">F150/100</f>
-        <v>0.8606</v>
+        <v>0.7222</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>86.06</v>
+        <v>72.22</v>
       </c>
       <c r="G150" s="3" t="n">
         <f aca="false">H150/100</f>
-        <v>0.7904</v>
+        <v>0.8606</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>79.04</v>
+        <v>86.06</v>
       </c>
       <c r="I150" s="3" t="n">
         <f aca="false">J150/100</f>
@@ -6466,24 +6466,24 @@
       </c>
       <c r="C151" s="3" t="n">
         <f aca="false">D151/100</f>
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="E151" s="3" t="n">
         <f aca="false">F151/100</f>
-        <v>0.9975</v>
+        <v>0.996</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>99.75</v>
+        <v>99.6</v>
       </c>
       <c r="G151" s="3" t="n">
         <f aca="false">H151/100</f>
-        <v>0.997</v>
+        <v>0.9975</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>99.7</v>
+        <v>99.75</v>
       </c>
       <c r="I151" s="3" t="n">
         <f aca="false">J151/100</f>
@@ -6505,24 +6505,24 @@
       </c>
       <c r="C152" s="3" t="n">
         <f aca="false">D152/100</f>
-        <v>0.935</v>
+        <v>0.9615</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>93.5</v>
+        <v>96.15</v>
       </c>
       <c r="E152" s="3" t="n">
         <f aca="false">F152/100</f>
-        <v>0.9882</v>
+        <v>0.935</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>98.82</v>
+        <v>93.5</v>
       </c>
       <c r="G152" s="3" t="n">
         <f aca="false">H152/100</f>
-        <v>0.9615</v>
+        <v>0.9882</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>96.15</v>
+        <v>98.82</v>
       </c>
       <c r="I152" s="3" t="n">
         <f aca="false">J152/100</f>
@@ -6544,24 +6544,24 @@
       </c>
       <c r="C153" s="3" t="n">
         <f aca="false">D153/100</f>
-        <v>0.9996</v>
+        <v>0.9997</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>99.96</v>
+        <v>99.97</v>
       </c>
       <c r="E153" s="3" t="n">
         <f aca="false">F153/100</f>
-        <v>0.9999</v>
+        <v>0.9996</v>
       </c>
       <c r="F153" s="3" t="n">
-        <v>99.99</v>
+        <v>99.96</v>
       </c>
       <c r="G153" s="3" t="n">
         <f aca="false">H153/100</f>
-        <v>0.9997</v>
+        <v>0.9999</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>99.97</v>
+        <v>99.99</v>
       </c>
       <c r="I153" s="3" t="n">
         <f aca="false">J153/100</f>
@@ -6583,24 +6583,24 @@
       </c>
       <c r="C154" s="3" t="n">
         <f aca="false">D154/100</f>
-        <v>0.7084</v>
+        <v>0.7653</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>70.84</v>
+        <v>76.53</v>
       </c>
       <c r="E154" s="3" t="n">
         <f aca="false">F154/100</f>
-        <v>0.8266</v>
+        <v>0.7084</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>82.66</v>
+        <v>70.84</v>
       </c>
       <c r="G154" s="3" t="n">
         <f aca="false">H154/100</f>
-        <v>0.7653</v>
+        <v>0.8266</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>76.53</v>
+        <v>82.66</v>
       </c>
       <c r="I154" s="3" t="n">
         <f aca="false">J154/100</f>
@@ -6622,24 +6622,24 @@
       </c>
       <c r="C155" s="3" t="n">
         <f aca="false">D155/100</f>
-        <v>0.9901</v>
+        <v>0.987</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>99.01</v>
+        <v>98.7</v>
       </c>
       <c r="E155" s="3" t="n">
         <f aca="false">F155/100</f>
-        <v>0.9837</v>
+        <v>0.9901</v>
       </c>
       <c r="F155" s="3" t="n">
-        <v>98.37</v>
+        <v>99.01</v>
       </c>
       <c r="G155" s="3" t="n">
         <f aca="false">H155/100</f>
-        <v>0.987</v>
+        <v>0.9837</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>98.7</v>
+        <v>98.37</v>
       </c>
       <c r="I155" s="3" t="n">
         <f aca="false">J155/100</f>
@@ -6668,17 +6668,17 @@
       </c>
       <c r="E156" s="3" t="n">
         <f aca="false">F156/100</f>
-        <v>1</v>
+        <v>0.9999</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="G156" s="3" t="n">
         <f aca="false">H156/100</f>
-        <v>0.9999</v>
+        <v>1</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="I156" s="3" t="n">
         <f aca="false">J156/100</f>
@@ -6700,24 +6700,24 @@
       </c>
       <c r="C157" s="3" t="n">
         <f aca="false">D157/100</f>
-        <v>0.8671</v>
+        <v>0.8751</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>86.71</v>
+        <v>87.51</v>
       </c>
       <c r="E157" s="3" t="n">
         <f aca="false">F157/100</f>
-        <v>0.8831</v>
+        <v>0.8671</v>
       </c>
       <c r="F157" s="3" t="n">
-        <v>88.31</v>
+        <v>86.71</v>
       </c>
       <c r="G157" s="3" t="n">
         <f aca="false">H157/100</f>
-        <v>0.8751</v>
+        <v>0.8831</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>87.51</v>
+        <v>88.31</v>
       </c>
       <c r="I157" s="3" t="n">
         <f aca="false">J157/100</f>
@@ -6739,24 +6739,24 @@
       </c>
       <c r="C158" s="3" t="n">
         <f aca="false">D158/100</f>
-        <v>0.9721</v>
+        <v>0.9713</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>97.21</v>
+        <v>97.13</v>
       </c>
       <c r="E158" s="3" t="n">
         <f aca="false">F158/100</f>
-        <v>0.9704</v>
+        <v>0.9721</v>
       </c>
       <c r="F158" s="3" t="n">
-        <v>97.04</v>
+        <v>97.21</v>
       </c>
       <c r="G158" s="3" t="n">
         <f aca="false">H158/100</f>
-        <v>0.9713</v>
+        <v>0.9704</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>97.13</v>
+        <v>97.04</v>
       </c>
       <c r="I158" s="3" t="n">
         <f aca="false">J158/100</f>
@@ -6778,24 +6778,24 @@
       </c>
       <c r="C159" s="3" t="n">
         <f aca="false">D159/100</f>
-        <v>0.936</v>
+        <v>0.95</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>93.6</v>
+        <v>95</v>
       </c>
       <c r="E159" s="3" t="n">
         <f aca="false">F159/100</f>
-        <v>0.9646</v>
+        <v>0.936</v>
       </c>
       <c r="F159" s="3" t="n">
-        <v>96.46</v>
+        <v>93.6</v>
       </c>
       <c r="G159" s="3" t="n">
         <f aca="false">H159/100</f>
-        <v>0.95</v>
+        <v>0.9646</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>95</v>
+        <v>96.46</v>
       </c>
       <c r="I159" s="3" t="n">
         <f aca="false">J159/100</f>
@@ -6817,24 +6817,24 @@
       </c>
       <c r="C160" s="3" t="n">
         <f aca="false">D160/100</f>
-        <v>0.35</v>
+        <v>0.541</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>35</v>
+        <v>54.1</v>
       </c>
       <c r="E160" s="3" t="n">
         <f aca="false">F160/100</f>
-        <v>0.7316</v>
+        <v>0.35</v>
       </c>
       <c r="F160" s="3" t="n">
-        <v>73.16</v>
+        <v>35</v>
       </c>
       <c r="G160" s="3" t="n">
         <f aca="false">H160/100</f>
-        <v>0.541</v>
+        <v>0.7316</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>54.1</v>
+        <v>73.16</v>
       </c>
       <c r="I160" s="3" t="n">
         <f aca="false">J160/100</f>
@@ -6856,24 +6856,24 @@
       </c>
       <c r="C161" s="3" t="n">
         <f aca="false">D161/100</f>
-        <v>0.8308</v>
+        <v>0.8675</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>83.08</v>
+        <v>86.75</v>
       </c>
       <c r="E161" s="3" t="n">
         <f aca="false">F161/100</f>
-        <v>0.906</v>
+        <v>0.8308</v>
       </c>
       <c r="F161" s="3" t="n">
-        <v>90.6</v>
+        <v>83.08</v>
       </c>
       <c r="G161" s="3" t="n">
         <f aca="false">H161/100</f>
-        <v>0.8675</v>
+        <v>0.906</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>86.75</v>
+        <v>90.6</v>
       </c>
       <c r="I161" s="3" t="n">
         <f aca="false">J161/100</f>
@@ -6895,24 +6895,24 @@
       </c>
       <c r="C162" s="3" t="n">
         <f aca="false">D162/100</f>
-        <v>0.8828</v>
+        <v>0.8869</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>88.28</v>
+        <v>88.69</v>
       </c>
       <c r="E162" s="3" t="n">
         <f aca="false">F162/100</f>
-        <v>0.8919</v>
+        <v>0.8828</v>
       </c>
       <c r="F162" s="3" t="n">
-        <v>89.19</v>
+        <v>88.28</v>
       </c>
       <c r="G162" s="3" t="n">
         <f aca="false">H162/100</f>
-        <v>0.8869</v>
+        <v>0.8919</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>88.69</v>
+        <v>89.19</v>
       </c>
       <c r="I162" s="3" t="n">
         <f aca="false">J162/100</f>
